--- a/Balance Bot Lifting Calculations.xlsx
+++ b/Balance Bot Lifting Calculations.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <r>
       <t>Horiz. Dist. From Wheel Axle to C.G.
@@ -485,6 +485,9 @@
       <t>°</t>
     </r>
   </si>
+  <si>
+    <t>Bot Height from Ground</t>
+  </si>
 </sst>
 </file>
 
@@ -493,7 +496,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,8 +540,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -548,6 +559,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
   </fills>
@@ -575,11 +591,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -617,8 +634,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -6614,8 +6639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A34:V121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="R44" sqref="R44"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6624,16 +6649,16 @@
       <c r="D34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="9">
-        <f>ROUNDDOWN((r_W+G39)/2-5,0)</f>
-        <v>130</v>
+      <c r="E34" s="17">
+        <f>G38/2-5</f>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.55000000000000004">
       <c r="D35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="9">
         <v>32.5</v>
       </c>
     </row>
@@ -6641,16 +6666,16 @@
       <c r="D36" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="9">
         <f>E37+E38+y_AP</f>
-        <v>122.44059999999999</v>
+        <v>236.78749999999999</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.45">
       <c r="D37" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="9">
         <v>5</v>
       </c>
       <c r="K37" s="3" t="s">
@@ -6664,8 +6689,14 @@
       <c r="D38" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="9">
         <v>14.2875</v>
+      </c>
+      <c r="G38" s="15">
+        <v>500</v>
+      </c>
+      <c r="H38" t="s">
+        <v>40</v>
       </c>
       <c r="K38">
         <f>180-37.643</f>
@@ -6683,12 +6714,13 @@
       <c r="D39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="17">
         <f>(G39+r_W)/2-r_W</f>
-        <v>103.15309999999999</v>
-      </c>
-      <c r="G39" s="12">
-        <v>238.80619999999999</v>
+        <v>217.5</v>
+      </c>
+      <c r="G39" s="16">
+        <f>G38-r_W</f>
+        <v>467.5</v>
       </c>
       <c r="H39" t="s">
         <v>25</v>
@@ -6701,19 +6733,19 @@
       <c r="D40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="9">
         <v>123.0133</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="16">
         <f>y_AP+l_A</f>
-        <v>233.15309999999999</v>
+        <v>462.5</v>
       </c>
       <c r="H40" t="s">
         <v>35</v>
       </c>
       <c r="Q40" s="12">
         <f>G39-G40</f>
-        <v>5.6530999999999949</v>
+        <v>5</v>
       </c>
       <c r="R40" s="10" t="s">
         <v>34</v>
@@ -6723,19 +6755,19 @@
       <c r="D41" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="9">
         <v>1.5147999999999999</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G41" s="16">
         <f>r_W+y_AP-l_A</f>
-        <v>5.6530999999999949</v>
+        <v>5</v>
       </c>
       <c r="H41" t="s">
         <v>36</v>
       </c>
       <c r="Q41" s="12">
         <f>G41</f>
-        <v>5.6530999999999949</v>
+        <v>5</v>
       </c>
       <c r="R41" s="10" t="s">
         <v>37</v>
@@ -6751,7 +6783,7 @@
       <c r="G42" s="12"/>
       <c r="Q42" s="12">
         <f t="array" ref="Q42">MIN(IF(ISERROR(I47:I119),"",I47:I119))</f>
-        <v>5.3442901377191703</v>
+        <v>38.023313921458055</v>
       </c>
       <c r="R42" s="10" t="s">
         <v>38</v>
@@ -6767,19 +6799,14 @@
       <c r="G43" s="12"/>
       <c r="Q43" s="13">
         <f t="array" ref="Q43">INDEX(A47:A119, MATCH(MAX(IF(ISERROR(E47:E119),"",E47:E119)),IF(ISERROR(E47:E119),"",E47:E119),0))</f>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="R43" s="11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="D44" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44">
-        <v>236</v>
-      </c>
+      <c r="D44" s="6"/>
       <c r="G44" s="12"/>
       <c r="Q44" s="14"/>
       <c r="R44" s="10"/>
@@ -7719,53 +7746,53 @@
         <f t="shared" si="9"/>
         <v>1.3439035240356338</v>
       </c>
-      <c r="E60" s="5" t="e">
+      <c r="E60" s="5">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F60" s="4" t="e">
+        <v>163.07546116691688</v>
+      </c>
+      <c r="F60" s="4">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>2.8462037265708537</v>
       </c>
       <c r="G60" s="5">
         <f t="shared" si="2"/>
         <v>27.671971533318157</v>
       </c>
-      <c r="H60" s="5" t="e">
+      <c r="H60" s="5">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="I60" s="5" t="e">
+        <v>65.695285454776212</v>
+      </c>
+      <c r="I60" s="5">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
+        <v>38.023313921458055</v>
       </c>
       <c r="J60" s="4">
         <f>m*g*G60/1000</f>
         <v>0.41107027568245247</v>
       </c>
-      <c r="K60" s="5" t="e">
+      <c r="K60" s="5">
         <f>J60/(H60/1000)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L60" s="5" t="e">
+        <v>6.2572264179509194</v>
+      </c>
+      <c r="L60" s="5">
         <f>180-E60-A60</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M60" s="5" t="e">
+        <v>3.924538833083119</v>
+      </c>
+      <c r="M60" s="5">
         <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N60" s="5" t="e">
+        <v>6.8496124259676591E-2</v>
+      </c>
+      <c r="N60" s="5">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O60" s="5" t="e">
+        <v>1.2514452835901839</v>
+      </c>
+      <c r="O60" s="5">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="P60" s="4" t="e">
+        <v>1.6767714114176071</v>
+      </c>
+      <c r="P60" s="4">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>0.41080899579731373</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.45">
@@ -7785,53 +7812,53 @@
         <f t="shared" si="9"/>
         <v>1.3264502315156905</v>
       </c>
-      <c r="E61" s="5" t="e">
+      <c r="E61" s="5">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F61" s="4" t="e">
+        <v>159.74037859443317</v>
+      </c>
+      <c r="F61" s="4">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>2.7879955548551307</v>
       </c>
       <c r="G61" s="5">
         <f t="shared" si="2"/>
         <v>29.759610719970595</v>
       </c>
-      <c r="H61" s="5" t="e">
+      <c r="H61" s="5">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="I61" s="5" t="e">
+        <v>79.331293398621185</v>
+      </c>
+      <c r="I61" s="5">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
+        <v>49.571682678650589</v>
       </c>
       <c r="J61" s="4">
         <f>m*g*G61/1000</f>
         <v>0.44208239258021104</v>
       </c>
-      <c r="K61" s="5" t="e">
+      <c r="K61" s="5">
         <f>J61/(H61/1000)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L61" s="5" t="e">
+        <v>5.57261042447462</v>
+      </c>
+      <c r="L61" s="5">
         <f>180-E61-A61</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M61" s="5" t="e">
+        <v>6.2596214055668327</v>
+      </c>
+      <c r="M61" s="5">
         <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N61" s="5" t="e">
+        <v>0.10925100345545653</v>
+      </c>
+      <c r="N61" s="5">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O61" s="5" t="e">
+        <v>1.114522084894924</v>
+      </c>
+      <c r="O61" s="5">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="P61" s="4" t="e">
+        <v>1.7154802447350443</v>
+      </c>
+      <c r="P61" s="4">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>0.42029265996008586</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.45">
@@ -7851,53 +7878,53 @@
         <f t="shared" si="9"/>
         <v>1.3089969389957472</v>
       </c>
-      <c r="E62" s="5" t="e">
+      <c r="E62" s="5">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F62" s="4" t="e">
+        <v>156.9550756058735</v>
+      </c>
+      <c r="F62" s="4">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>2.7393828470391264</v>
       </c>
       <c r="G62" s="5">
         <f t="shared" si="2"/>
         <v>31.838184840909911</v>
       </c>
-      <c r="H62" s="5" t="e">
+      <c r="H62" s="5">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="I62" s="5" t="e">
+        <v>90.580771302621628</v>
+      </c>
+      <c r="I62" s="5">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
+        <v>58.742586461711717</v>
       </c>
       <c r="J62" s="4">
         <f>m*g*G62/1000</f>
         <v>0.47295984689864135</v>
       </c>
-      <c r="K62" s="5" t="e">
+      <c r="K62" s="5">
         <f>J62/(H62/1000)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L62" s="5" t="e">
+        <v>5.2214155399331732</v>
+      </c>
+      <c r="L62" s="5">
         <f>180-E62-A62</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M62" s="5" t="e">
+        <v>8.0449243941264967</v>
+      </c>
+      <c r="M62" s="5">
         <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N62" s="5" t="e">
+        <v>0.14041041875151733</v>
+      </c>
+      <c r="N62" s="5">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O62" s="5" t="e">
+        <v>1.0442831079866346</v>
+      </c>
+      <c r="O62" s="5">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="P62" s="4" t="e">
+        <v>1.7647404696809297</v>
+      </c>
+      <c r="P62" s="4">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>0.43236141507182774</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.45">
@@ -7917,53 +7944,53 @@
         <f t="shared" si="9"/>
         <v>1.2915436464758039</v>
       </c>
-      <c r="E63" s="5" t="e">
+      <c r="E63" s="5">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F63" s="4" t="e">
+        <v>154.40756106074579</v>
+      </c>
+      <c r="F63" s="4">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>2.694920330484202</v>
       </c>
       <c r="G63" s="5">
         <f t="shared" si="2"/>
         <v>33.90706074232326</v>
       </c>
-      <c r="H63" s="5" t="e">
+      <c r="H63" s="5">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="I63" s="5" t="e">
+        <v>100.77758872521562</v>
+      </c>
+      <c r="I63" s="5">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
+        <v>66.870527982892355</v>
       </c>
       <c r="J63" s="4">
         <f>m*g*G63/1000</f>
         <v>0.50369323306604141</v>
       </c>
-      <c r="K63" s="5" t="e">
+      <c r="K63" s="5">
         <f>J63/(H63/1000)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L63" s="5" t="e">
+        <v>4.9980679180510297</v>
+      </c>
+      <c r="L63" s="5">
         <f>180-E63-A63</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M63" s="5" t="e">
+        <v>9.5924389392542082</v>
+      </c>
+      <c r="M63" s="5">
         <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N63" s="5" t="e">
+        <v>0.16741964278649826</v>
+      </c>
+      <c r="N63" s="5">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O63" s="5" t="e">
+        <v>0.99961358361020602</v>
+      </c>
+      <c r="O63" s="5">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="P63" s="4" t="e">
+        <v>1.8185082026655293</v>
+      </c>
+      <c r="P63" s="4">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>0.44553450965305469</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.45">
@@ -7983,53 +8010,53 @@
         <f t="shared" si="9"/>
         <v>1.2740903539558606</v>
       </c>
-      <c r="E64" s="5" t="e">
+      <c r="E64" s="5">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F64" s="4" t="e">
+        <v>151.99708887981643</v>
+      </c>
+      <c r="F64" s="4">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>2.6528496543992564</v>
       </c>
       <c r="G64" s="5">
         <f t="shared" si="2"/>
         <v>35.965608224569444</v>
       </c>
-      <c r="H64" s="5" t="e">
+      <c r="H64" s="5">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="I64" s="5" t="e">
+        <v>110.35126899204241</v>
+      </c>
+      <c r="I64" s="5">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
+        <v>74.385660767472956</v>
       </c>
       <c r="J64" s="4">
         <f>m*g*G64/1000</f>
         <v>0.53427318939526391</v>
       </c>
-      <c r="K64" s="5" t="e">
+      <c r="K64" s="5">
         <f>J64/(H64/1000)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L64" s="5" t="e">
+        <v>4.8415681511899162</v>
+      </c>
+      <c r="L64" s="5">
         <f>180-E64-A64</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M64" s="5" t="e">
+        <v>11.002911120183569</v>
+      </c>
+      <c r="M64" s="5">
         <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N64" s="5" t="e">
+        <v>0.1920370263515008</v>
+      </c>
+      <c r="N64" s="5">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O64" s="5" t="e">
+        <v>0.96831363023798334</v>
+      </c>
+      <c r="O64" s="5">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="P64" s="4" t="e">
+        <v>1.8745698204103691</v>
+      </c>
+      <c r="P64" s="4">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>0.4592696060005404</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.45">
@@ -8049,53 +8076,53 @@
         <f t="shared" si="9"/>
         <v>1.2566370614359172</v>
       </c>
-      <c r="E65" s="5" t="e">
+      <c r="E65" s="5">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F65" s="4" t="e">
+        <v>149.67655867207688</v>
+      </c>
+      <c r="F65" s="4">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>2.6123487618822132</v>
       </c>
       <c r="G65" s="5">
         <f t="shared" si="2"/>
         <v>38.013200234143724</v>
       </c>
-      <c r="H65" s="5" t="e">
+      <c r="H65" s="5">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="I65" s="5" t="e">
+        <v>119.50157211955235</v>
+      </c>
+      <c r="I65" s="5">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
+        <v>81.488371885408625</v>
       </c>
       <c r="J65" s="4">
         <f>m*g*G65/1000</f>
         <v>0.56469040093537559</v>
       </c>
-      <c r="K65" s="5" t="e">
+      <c r="K65" s="5">
         <f>J65/(H65/1000)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L65" s="5" t="e">
+        <v>4.7253805194332106</v>
+      </c>
+      <c r="L65" s="5">
         <f>180-E65-A65</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M65" s="5" t="e">
+        <v>12.323441327923121</v>
+      </c>
+      <c r="M65" s="5">
         <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N65" s="5" t="e">
+        <v>0.21508462634860068</v>
+      </c>
+      <c r="N65" s="5">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O65" s="5" t="e">
+        <v>0.9450761038866422</v>
+      </c>
+      <c r="O65" s="5">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="P65" s="4" t="e">
+        <v>1.9318384404504259</v>
+      </c>
+      <c r="P65" s="4">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>0.47330041791035432</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.45">
@@ -8115,53 +8142,53 @@
         <f t="shared" si="9"/>
         <v>1.2391837689159739</v>
       </c>
-      <c r="E66" s="5" t="e">
+      <c r="E66" s="5">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F66" s="4" t="e">
+        <v>147.41975094522377</v>
+      </c>
+      <c r="F66" s="4">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>2.5729600364641776</v>
       </c>
       <c r="G66" s="5">
         <f t="shared" si="2"/>
         <v>40.049213054684557</v>
       </c>
-      <c r="H66" s="5" t="e">
+      <c r="H66" s="5">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="I66" s="5" t="e">
+        <v>128.33879978850837</v>
+      </c>
+      <c r="I66" s="5">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
+        <v>88.289586733823811</v>
       </c>
       <c r="J66" s="4">
         <f>m*g*G66/1000</f>
         <v>0.59493560230908371</v>
       </c>
-      <c r="K66" s="5" t="e">
+      <c r="K66" s="5">
         <f>J66/(H66/1000)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L66" s="5" t="e">
+        <v>4.6356643765524375</v>
+      </c>
+      <c r="L66" s="5">
         <f>180-E66-A66</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M66" s="5" t="e">
+        <v>13.580249054776232</v>
+      </c>
+      <c r="M66" s="5">
         <f t="shared" si="11"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N66" s="5" t="e">
+        <v>0.237020059246693</v>
+      </c>
+      <c r="N66" s="5">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O66" s="5" t="e">
+        <v>0.92713287531048749</v>
+      </c>
+      <c r="O66" s="5">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="P66" s="4" t="e">
+        <v>1.9896987521815082</v>
+      </c>
+      <c r="P66" s="4">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>0.48747619428446948</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.45">
@@ -8183,11 +8210,11 @@
       </c>
       <c r="E67" s="5">
         <f t="shared" si="0"/>
-        <v>154.64303001032172</v>
+        <v>145.21045385880799</v>
       </c>
       <c r="F67" s="4">
         <f t="shared" si="1"/>
-        <v>2.6990300389405149</v>
+        <v>2.5344005281515045</v>
       </c>
       <c r="G67" s="5">
         <f t="shared" si="2"/>
@@ -8195,11 +8222,11 @@
       </c>
       <c r="H67" s="5">
         <f t="shared" si="3"/>
-        <v>47.417316634682678</v>
+        <v>136.93037257090066</v>
       </c>
       <c r="I67" s="5">
         <f t="shared" si="10"/>
-        <v>5.3442901377191703</v>
+        <v>94.857346073937151</v>
       </c>
       <c r="J67" s="4">
         <f>m*g*G67/1000</f>
@@ -8207,27 +8234,27 @@
       </c>
       <c r="K67" s="5">
         <f>J67/(H67/1000)</f>
-        <v>13.180829808448326</v>
+        <v>4.5643604760619629</v>
       </c>
       <c r="L67" s="5">
         <f>180-E67-A67</f>
-        <v>5.3569699896782765</v>
+        <v>14.789546141192005</v>
       </c>
       <c r="M67" s="5">
         <f t="shared" si="11"/>
-        <v>9.3496764250412576E-2</v>
+        <v>0.25812627503942265</v>
       </c>
       <c r="N67" s="5">
         <f t="shared" si="4"/>
-        <v>2.6361659616896653</v>
+        <v>0.91287209521239265</v>
       </c>
       <c r="O67" s="5">
         <f t="shared" si="5"/>
-        <v>3.8552223784875208</v>
+        <v>2.0477699681002091</v>
       </c>
       <c r="P67" s="4">
         <f t="shared" si="6"/>
-        <v>0.50117890920337771</v>
+        <v>0.50170364218455121</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.45">
@@ -8249,11 +8276,11 @@
       </c>
       <c r="E68" s="5">
         <f t="shared" si="0"/>
-        <v>151.21461383208563</v>
+        <v>143.03790705280164</v>
       </c>
       <c r="F68" s="4">
         <f t="shared" si="1"/>
-        <v>2.639192888501654</v>
+        <v>2.4964824332330071</v>
       </c>
       <c r="G68" s="5">
         <f t="shared" si="2"/>
@@ -8261,11 +8288,11 @@
       </c>
       <c r="H68" s="5">
         <f t="shared" si="3"/>
-        <v>54.576937826598254</v>
+        <v>145.32035292347513</v>
       </c>
       <c r="I68" s="5">
         <f t="shared" si="10"/>
-        <v>10.492913738797355</v>
+        <v>101.23632883567423</v>
       </c>
       <c r="J68" s="4">
         <f>m*g*G68/1000</f>
@@ -8273,27 +8300,27 @@
       </c>
       <c r="K68" s="5">
         <f>J68/(H68/1000)</f>
-        <v>11.999082468037253</v>
+        <v>4.5064105932852154</v>
       </c>
       <c r="L68" s="5">
         <f>180-E68-A68</f>
-        <v>7.7853861679143677</v>
+        <v>15.962092947198357</v>
       </c>
       <c r="M68" s="5">
         <f t="shared" si="11"/>
-        <v>0.13588062216932983</v>
+        <v>0.27859107743797673</v>
       </c>
       <c r="N68" s="5">
         <f t="shared" si="4"/>
-        <v>2.3998164936074509</v>
+        <v>0.90128211865704311</v>
       </c>
       <c r="O68" s="5">
         <f t="shared" si="5"/>
-        <v>4.0031261313208937</v>
+        <v>2.1058010190706171</v>
       </c>
       <c r="P68" s="4">
         <f t="shared" si="6"/>
-        <v>0.5204063970717161</v>
+        <v>0.51592124967230124</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.45">
@@ -8315,11 +8342,11 @@
       </c>
       <c r="E69" s="5">
         <f t="shared" si="0"/>
-        <v>148.30114549754421</v>
+        <v>140.8945923523429</v>
       </c>
       <c r="F69" s="4">
         <f t="shared" si="1"/>
-        <v>2.5883432734113105</v>
+        <v>2.459074534803606</v>
       </c>
       <c r="G69" s="5">
         <f t="shared" si="2"/>
@@ -8327,11 +8354,11 @@
       </c>
       <c r="H69" s="5">
         <f t="shared" si="3"/>
-        <v>60.5428888363002</v>
+        <v>153.53891462065513</v>
       </c>
       <c r="I69" s="5">
         <f t="shared" si="10"/>
-        <v>14.461295578450603</v>
+        <v>107.45732136280554</v>
       </c>
       <c r="J69" s="4">
         <f>m*g*G69/1000</f>
@@ -8339,27 +8366,27 @@
       </c>
       <c r="K69" s="5">
         <f>J69/(H69/1000)</f>
-        <v>11.306815838778135</v>
+        <v>4.4584612058184554</v>
       </c>
       <c r="L69" s="5">
         <f>180-E69-A69</f>
-        <v>9.698854502455788</v>
+        <v>17.105407647657103</v>
       </c>
       <c r="M69" s="5">
         <f t="shared" si="11"/>
-        <v>0.16927694473972996</v>
+        <v>0.29854568334743453</v>
       </c>
       <c r="N69" s="5">
         <f t="shared" si="4"/>
-        <v>2.261363167755627</v>
+        <v>0.89169224116369117</v>
       </c>
       <c r="O69" s="5">
         <f t="shared" si="5"/>
-        <v>4.1338966995316238</v>
+        <v>2.1636180357477803</v>
       </c>
       <c r="P69" s="4">
         <f t="shared" si="6"/>
-        <v>0.53740657093911115</v>
+        <v>0.53008641875820617</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.45">
@@ -8381,11 +8408,11 @@
       </c>
       <c r="E70" s="5">
         <f t="shared" si="0"/>
-        <v>145.63948256326626</v>
+        <v>138.7750480075708</v>
       </c>
       <c r="F70" s="4">
         <f t="shared" si="1"/>
-        <v>2.5418884916298667</v>
+        <v>2.422081507345307</v>
       </c>
       <c r="G70" s="5">
         <f t="shared" si="2"/>
@@ -8393,11 +8420,11 @@
       </c>
       <c r="H70" s="5">
         <f t="shared" si="3"/>
-        <v>65.91275960036451</v>
+        <v>161.60742656721774</v>
       </c>
       <c r="I70" s="5">
         <f t="shared" si="10"/>
-        <v>17.847634072174941</v>
+        <v>113.54230103902817</v>
       </c>
       <c r="J70" s="4">
         <f>m*g*G70/1000</f>
@@ -8405,27 +8432,27 @@
       </c>
       <c r="K70" s="5">
         <f>J70/(H70/1000)</f>
-        <v>10.832696060625032</v>
+        <v>4.4181935597545845</v>
       </c>
       <c r="L70" s="5">
         <f>180-E70-A70</f>
-        <v>11.360517436733744</v>
+        <v>18.224951992429197</v>
       </c>
       <c r="M70" s="5">
         <f t="shared" si="11"/>
-        <v>0.19827843400123044</v>
+        <v>0.31808541828579018</v>
       </c>
       <c r="N70" s="5">
         <f t="shared" si="4"/>
-        <v>2.1665392121250067</v>
+        <v>0.88363871195091692</v>
       </c>
       <c r="O70" s="5">
         <f t="shared" si="5"/>
-        <v>4.2579343673664223</v>
+        <v>2.2210956422490002</v>
       </c>
       <c r="P70" s="4">
         <f t="shared" si="6"/>
-        <v>0.55353146775763495</v>
+        <v>0.54416843235100509</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.45">
@@ -8447,11 +8474,11 @@
       </c>
       <c r="E71" s="5">
         <f t="shared" si="0"/>
-        <v>143.13180454669626</v>
+        <v>136.67518258448064</v>
       </c>
       <c r="F71" s="4">
         <f t="shared" si="1"/>
-        <v>2.4981212536608397</v>
+        <v>2.3854319418636001</v>
       </c>
       <c r="G71" s="5">
         <f t="shared" si="2"/>
@@ -8459,11 +8486,11 @@
       </c>
       <c r="H71" s="5">
         <f t="shared" si="3"/>
-        <v>70.908315291593368</v>
+        <v>169.54139527857194</v>
       </c>
       <c r="I71" s="5">
         <f t="shared" si="10"/>
-        <v>20.874298595917033</v>
+        <v>119.5073785828956</v>
       </c>
       <c r="J71" s="4">
         <f>m*g*G71/1000</f>
@@ -8471,27 +8498,27 @@
       </c>
       <c r="K71" s="5">
         <f>J71/(H71/1000)</f>
-        <v>10.482000451089039</v>
+        <v>4.383949958953683</v>
       </c>
       <c r="L71" s="5">
         <f>180-E71-A71</f>
-        <v>12.868195453303741</v>
+        <v>19.324817415519362</v>
       </c>
       <c r="M71" s="5">
         <f t="shared" si="11"/>
-        <v>0.22459237945031452</v>
+        <v>0.33728169124755403</v>
       </c>
       <c r="N71" s="5">
         <f t="shared" si="4"/>
-        <v>2.0964000902178079</v>
+        <v>0.87678999179073669</v>
       </c>
       <c r="O71" s="5">
         <f t="shared" si="5"/>
-        <v>4.3781847488236014</v>
+        <v>2.2781402243017457</v>
       </c>
       <c r="P71" s="4">
         <f t="shared" si="6"/>
-        <v>0.56916401734706823</v>
+        <v>0.55814435495392778</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.45">
@@ -8513,11 +8540,11 @@
       </c>
       <c r="E72" s="5">
         <f t="shared" si="0"/>
-        <v>140.72931570349235</v>
+        <v>134.59185420214632</v>
       </c>
       <c r="F72" s="4">
         <f t="shared" si="1"/>
-        <v>2.4561899131045015</v>
+        <v>2.3490710021916188</v>
       </c>
       <c r="G72" s="5">
         <f t="shared" si="2"/>
@@ -8525,11 +8552,11 @@
       </c>
       <c r="H72" s="5">
         <f t="shared" si="3"/>
-        <v>75.639796973069338</v>
+        <v>177.35226996543594</v>
       </c>
       <c r="I72" s="5">
         <f t="shared" si="10"/>
-        <v>23.652129956082156</v>
+        <v>125.36460294844875</v>
       </c>
       <c r="J72" s="4">
         <f>m*g*G72/1000</f>
@@ -8537,27 +8564,27 @@
       </c>
       <c r="K72" s="5">
         <f>J72/(H72/1000)</f>
-        <v>10.210004797520803</v>
+        <v>4.3545125761798662</v>
       </c>
       <c r="L72" s="5">
         <f>180-E72-A72</f>
-        <v>14.270684296507653</v>
+        <v>20.408145797853678</v>
       </c>
       <c r="M72" s="5">
         <f t="shared" si="11"/>
-        <v>0.24907042748670927</v>
+        <v>0.35618933839959177</v>
       </c>
       <c r="N72" s="5">
         <f t="shared" si="4"/>
-        <v>2.0420009595041608</v>
+        <v>0.87090251523597328</v>
       </c>
       <c r="O72" s="5">
         <f t="shared" si="5"/>
-        <v>4.4957874905245134</v>
+        <v>2.3346796807115213</v>
       </c>
       <c r="P72" s="4">
         <f t="shared" si="6"/>
-        <v>0.58445237376818671</v>
+        <v>0.5719965217743227</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.45">
@@ -8579,11 +8606,11 @@
       </c>
       <c r="E73" s="5">
         <f t="shared" si="0"/>
-        <v>138.40370184212412</v>
+        <v>132.52260024285087</v>
       </c>
       <c r="F73" s="4">
         <f t="shared" si="1"/>
-        <v>2.4156002940936072</v>
+        <v>2.3129557075419847</v>
       </c>
       <c r="G73" s="5">
         <f t="shared" si="2"/>
@@ -8591,11 +8618,11 @@
       </c>
       <c r="H73" s="5">
         <f t="shared" si="3"/>
-        <v>80.170829540983064</v>
+        <v>185.04860251246569</v>
       </c>
       <c r="I73" s="5">
         <f t="shared" si="10"/>
-        <v>26.245348149674243</v>
+        <v>131.12312112115688</v>
       </c>
       <c r="J73" s="4">
         <f>m*g*G73/1000</f>
@@ -8603,27 +8630,27 @@
       </c>
       <c r="K73" s="5">
         <f>J73/(H73/1000)</f>
-        <v>9.9920276100734107</v>
+        <v>4.3289661819630778</v>
       </c>
       <c r="L73" s="5">
         <f>180-E73-A73</f>
-        <v>15.596298157875879</v>
+        <v>21.477399757149129</v>
       </c>
       <c r="M73" s="5">
         <f t="shared" si="11"/>
-        <v>0.27220675397766048</v>
+        <v>0.37485134052928287</v>
       </c>
       <c r="N73" s="5">
         <f t="shared" si="4"/>
-        <v>1.9984055220146821</v>
+        <v>0.86579323639261563</v>
       </c>
       <c r="O73" s="5">
         <f t="shared" si="5"/>
-        <v>4.6112565799034266</v>
+        <v>2.3906568926069554</v>
       </c>
       <c r="P73" s="4">
         <f t="shared" si="6"/>
-        <v>0.59946335538744555</v>
+        <v>0.58571093868870416</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.45">
@@ -8645,11 +8672,11 @@
       </c>
       <c r="E74" s="5">
         <f t="shared" si="0"/>
-        <v>136.13690968013327</v>
+        <v>130.46545700995472</v>
       </c>
       <c r="F74" s="4">
         <f t="shared" si="1"/>
-        <v>2.376037307408466</v>
+        <v>2.2770517849428265</v>
       </c>
       <c r="G74" s="5">
         <f t="shared" si="2"/>
@@ -8657,11 +8684,11 @@
       </c>
       <c r="H74" s="5">
         <f t="shared" si="3"/>
-        <v>84.54167600680627</v>
+        <v>192.63682177269624</v>
       </c>
       <c r="I74" s="5">
         <f t="shared" si="10"/>
-        <v>28.694806465195477</v>
+        <v>136.78995223108544</v>
       </c>
       <c r="J74" s="4">
         <f>m*g*G74/1000</f>
@@ -8669,27 +8696,27 @@
       </c>
       <c r="K74" s="5">
         <f>J74/(H74/1000)</f>
-        <v>9.8130486687510352</v>
+        <v>4.3066095752528568</v>
       </c>
       <c r="L74" s="5">
         <f>180-E74-A74</f>
-        <v>16.863090319866728</v>
+        <v>22.534542990045281</v>
       </c>
       <c r="M74" s="5">
         <f t="shared" si="11"/>
-        <v>0.29431644814285818</v>
+        <v>0.39330197060849792</v>
       </c>
       <c r="N74" s="5">
         <f t="shared" si="4"/>
-        <v>1.9626097337502071</v>
+        <v>0.86132191505057143</v>
       </c>
       <c r="O74" s="5">
         <f t="shared" si="5"/>
-        <v>4.7248444648044412</v>
+        <v>2.4460254250900175</v>
       </c>
       <c r="P74" s="4">
         <f t="shared" si="6"/>
-        <v>0.61422978042457732</v>
+        <v>0.59927622914705436</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.45">
@@ -8711,11 +8738,11 @@
       </c>
       <c r="E75" s="5">
         <f t="shared" si="0"/>
-        <v>133.9166568452934</v>
+        <v>128.41883553407359</v>
       </c>
       <c r="F75" s="4">
         <f t="shared" si="1"/>
-        <v>2.3372865852137723</v>
+        <v>2.2413315016466751</v>
       </c>
       <c r="G75" s="5">
         <f t="shared" si="2"/>
@@ -8723,11 +8750,11 @@
       </c>
       <c r="H75" s="5">
         <f t="shared" si="3"/>
-        <v>88.779458193871463</v>
+        <v>200.12176706975649</v>
       </c>
       <c r="I75" s="5">
         <f t="shared" si="10"/>
-        <v>31.028211999421828</v>
+        <v>142.37052087530685</v>
       </c>
       <c r="J75" s="4">
         <f>m*g*G75/1000</f>
@@ -8735,27 +8762,27 @@
       </c>
       <c r="K75" s="5">
         <f>J75/(H75/1000)</f>
-        <v>9.663286190499802</v>
+        <v>4.2868965476696683</v>
       </c>
       <c r="L75" s="5">
         <f>180-E75-A75</f>
-        <v>18.083343154706597</v>
+        <v>23.581164465926406</v>
       </c>
       <c r="M75" s="5">
         <f t="shared" si="11"/>
-        <v>0.31561387781760847</v>
+        <v>0.411568961384706</v>
       </c>
       <c r="N75" s="5">
         <f t="shared" si="4"/>
-        <v>1.9326572380999605</v>
+        <v>0.85737930953393371</v>
       </c>
       <c r="O75" s="5">
         <f t="shared" si="5"/>
-        <v>4.8366804473227285</v>
+        <v>2.5007466210522082</v>
       </c>
       <c r="P75" s="4">
         <f t="shared" si="6"/>
-        <v>0.6287684581519547</v>
+        <v>0.61268292215779108</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.45">
@@ -8777,11 +8804,11 @@
       </c>
       <c r="E76" s="5">
         <f t="shared" si="0"/>
-        <v>131.73418026877914</v>
+        <v>126.38143372392703</v>
       </c>
       <c r="F76" s="4">
         <f t="shared" si="1"/>
-        <v>2.2991951831059447</v>
+        <v>2.2057721318735251</v>
       </c>
       <c r="G76" s="5">
         <f t="shared" si="2"/>
@@ -8789,11 +8816,11 @@
       </c>
       <c r="H76" s="5">
         <f t="shared" si="3"/>
-        <v>92.903284460533783</v>
+        <v>207.50706581408798</v>
       </c>
       <c r="I76" s="5">
         <f t="shared" si="10"/>
-        <v>33.265253202285045</v>
+        <v>147.86903455583925</v>
       </c>
       <c r="J76" s="4">
         <f>m*g*G76/1000</f>
@@ -8801,27 +8828,27 @@
       </c>
       <c r="K76" s="5">
         <f>J76/(H76/1000)</f>
-        <v>9.5360430326135752</v>
+        <v>4.2693954300357273</v>
       </c>
       <c r="L76" s="5">
         <f>180-E76-A76</f>
-        <v>19.265819731220859</v>
+        <v>24.618566276072968</v>
       </c>
       <c r="M76" s="5">
         <f t="shared" si="11"/>
-        <v>0.33625198740549295</v>
+        <v>0.42967503863791262</v>
       </c>
       <c r="N76" s="5">
         <f t="shared" si="4"/>
-        <v>1.9072086065227152</v>
+        <v>0.85387908600714546</v>
       </c>
       <c r="O76" s="5">
         <f t="shared" si="5"/>
-        <v>4.9468308355395152</v>
+        <v>2.5547875910965119</v>
       </c>
       <c r="P76" s="4">
         <f t="shared" si="6"/>
-        <v>0.64308800862013693</v>
+        <v>0.62592295981864543</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.45">
@@ -8843,11 +8870,11 @@
       </c>
       <c r="E77" s="5">
         <f t="shared" si="0"/>
-        <v>129.58299602208484</v>
+        <v>124.35217278021209</v>
       </c>
       <c r="F77" s="4">
         <f t="shared" si="1"/>
-        <v>2.2616499351840953</v>
+        <v>2.1703548470235718</v>
       </c>
       <c r="G77" s="5">
         <f t="shared" si="2"/>
@@ -8855,11 +8882,11 @@
       </c>
       <c r="H77" s="5">
         <f t="shared" si="3"/>
-        <v>96.927075246681781</v>
+        <v>214.79540703867144</v>
       </c>
       <c r="I77" s="5">
         <f t="shared" si="10"/>
-        <v>35.420425246681766</v>
+        <v>153.28875703867143</v>
       </c>
       <c r="J77" s="4">
         <f>m*g*G77/1000</f>
@@ -8867,27 +8894,27 @@
       </c>
       <c r="K77" s="5">
         <f>J77/(H77/1000)</f>
-        <v>9.4265535146798154</v>
+        <v>4.2537607038764289</v>
       </c>
       <c r="L77" s="5">
         <f>180-E77-A77</f>
-        <v>20.417003977915158</v>
+        <v>25.647827219787914</v>
       </c>
       <c r="M77" s="5">
         <f t="shared" si="11"/>
-        <v>0.35634394280739912</v>
+        <v>0.44763903096792246</v>
       </c>
       <c r="N77" s="5">
         <f t="shared" si="4"/>
-        <v>1.8853107029359633</v>
+        <v>0.85075214077528583</v>
       </c>
       <c r="O77" s="5">
         <f t="shared" si="5"/>
-        <v>5.0553276820410353</v>
+        <v>2.6081197959962283</v>
       </c>
       <c r="P77" s="4">
         <f t="shared" si="6"/>
-        <v>0.65719259866533453</v>
+        <v>0.63898935001907586</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.45">
@@ -8909,11 +8936,11 @@
       </c>
       <c r="E78" s="5">
         <f t="shared" si="0"/>
-        <v>127.45816644685551</v>
+        <v>122.33015024325017</v>
       </c>
       <c r="F78" s="4">
         <f t="shared" si="1"/>
-        <v>2.224564663052591</v>
+        <v>2.1350638962040578</v>
       </c>
       <c r="G78" s="5">
         <f t="shared" si="2"/>
@@ -8921,11 +8948,11 @@
       </c>
       <c r="H78" s="5">
         <f t="shared" si="3"/>
-        <v>100.86123355480157</v>
+        <v>221.98874357197451</v>
       </c>
       <c r="I78" s="5">
         <f t="shared" si="10"/>
-        <v>37.504700334468609</v>
+        <v>158.63221035164156</v>
       </c>
       <c r="J78" s="4">
         <f>m*g*G78/1000</f>
@@ -8933,27 +8960,27 @@
       </c>
       <c r="K78" s="5">
         <f>J78/(H78/1000)</f>
-        <v>9.3313204064143527</v>
+        <v>4.239712661740854</v>
       </c>
       <c r="L78" s="5">
         <f>180-E78-A78</f>
-        <v>21.541833553144485</v>
+        <v>26.669849756749826</v>
       </c>
       <c r="M78" s="5">
         <f t="shared" si="11"/>
-        <v>0.37597592241896016</v>
+        <v>0.46547668926749325</v>
       </c>
       <c r="N78" s="5">
         <f t="shared" si="4"/>
-        <v>1.8662640812828706</v>
+        <v>0.84794253234817085</v>
       </c>
       <c r="O78" s="5">
         <f t="shared" si="5"/>
-        <v>5.1621835209042768</v>
+        <v>2.6607180301442073</v>
       </c>
       <c r="P78" s="4">
         <f t="shared" si="6"/>
-        <v>0.67108385771755596</v>
+        <v>0.65187591738533079</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.45">
@@ -8975,11 +9002,11 @@
       </c>
       <c r="E79" s="5">
         <f t="shared" ref="E79:E110" si="13">180-A79-DEGREES(ACOS((y_AP*COS(B79)+r_W)/l_A))</f>
-        <v>125.35584261855729</v>
+        <v>120.31460471103784</v>
       </c>
       <c r="F79" s="4">
         <f t="shared" si="1"/>
-        <v>2.1878721903056548</v>
+        <v>2.0998859904430911</v>
       </c>
       <c r="G79" s="5">
         <f t="shared" ref="G79:G110" si="14">(r_W/SIN(D79)+y_CG)*COS(D79)-r_W/TAN(D79)</f>
@@ -8987,11 +9014,11 @@
       </c>
       <c r="H79" s="5">
         <f t="shared" ref="H79:H110" si="15">(r_W/SIN(D79)+y_AP)*COS(D79)-r_W/TAN(D79)+l_A*COS(F79-D79)</f>
-        <v>104.71368831335447</v>
+        <v>229.08844413563818</v>
       </c>
       <c r="I79" s="5">
         <f t="shared" si="10"/>
-        <v>39.526570886455943</v>
+        <v>163.90132670873965</v>
       </c>
       <c r="J79" s="4">
         <f>m*g*G79/1000</f>
@@ -8999,27 +9026,27 @@
       </c>
       <c r="K79" s="5">
         <f>J79/(H79/1000)</f>
-        <v>9.2477119132851495</v>
+        <v>4.227022565686859</v>
       </c>
       <c r="L79" s="5">
         <f>180-E79-A79</f>
-        <v>22.64415738144271</v>
+        <v>27.685395288962155</v>
       </c>
       <c r="M79" s="5">
         <f t="shared" si="11"/>
-        <v>0.39521510264595283</v>
+        <v>0.48320130250851656</v>
       </c>
       <c r="N79" s="5">
         <f t="shared" ref="N79:N110" si="16">K79*mu</f>
-        <v>1.8495423826570301</v>
+        <v>0.84540451313737186</v>
       </c>
       <c r="O79" s="5">
         <f t="shared" ref="O79:O110" si="17">K79*SIN(M79)+N79*COS(M79)</f>
-        <v>5.2673993538283828</v>
+        <v>2.7125596818932363</v>
       </c>
       <c r="P79" s="4">
         <f t="shared" ref="P79:P110" si="18">O79*l_A/1000</f>
-        <v>0.68476191599768976</v>
+        <v>0.6645771220638429</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.45">
@@ -9041,11 +9068,11 @@
       </c>
       <c r="E80" s="5">
         <f t="shared" si="13"/>
-        <v>123.27296581462754</v>
+        <v>118.30488891357935</v>
       </c>
       <c r="F80" s="4">
         <f t="shared" si="1"/>
-        <v>2.1515191321636644</v>
+        <v>2.064809832748097</v>
       </c>
       <c r="G80" s="5">
         <f t="shared" si="14"/>
@@ -9053,11 +9080,11 @@
       </c>
       <c r="H80" s="5">
         <f t="shared" si="15"/>
-        <v>108.49057547014547</v>
+        <v>236.09540958235738</v>
       </c>
       <c r="I80" s="5">
         <f t="shared" si="10"/>
-        <v>41.492730464131441</v>
+        <v>169.09756457634336</v>
       </c>
       <c r="J80" s="4">
         <f>m*g*G80/1000</f>
@@ -9065,27 +9092,27 @@
       </c>
       <c r="K80" s="5">
         <f>J80/(H80/1000)</f>
-        <v>9.1737054776135434</v>
+        <v>4.2155016407158961</v>
       </c>
       <c r="L80" s="5">
         <f>180-E80-A80</f>
-        <v>23.72703418537246</v>
+        <v>28.695111086420653</v>
       </c>
       <c r="M80" s="5">
         <f t="shared" si="11"/>
-        <v>0.41411486826800004</v>
+        <v>0.50082416768356752</v>
       </c>
       <c r="N80" s="5">
         <f t="shared" si="16"/>
-        <v>1.8347410955227088</v>
+        <v>0.84310032814317926</v>
       </c>
       <c r="O80" s="5">
         <f t="shared" si="17"/>
-        <v>5.3709691753710125</v>
+        <v>2.7636241885099784</v>
       </c>
       <c r="P80" s="4">
         <f t="shared" si="18"/>
-        <v>0.69822599279823161</v>
+        <v>0.67708792618494462</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.45">
@@ -9107,11 +9134,11 @@
       </c>
       <c r="E81" s="5">
         <f t="shared" si="13"/>
-        <v>121.20706553223839</v>
+        <v>116.30044887930808</v>
       </c>
       <c r="F81" s="4">
         <f t="shared" si="1"/>
-        <v>2.115462370218093</v>
+        <v>2.0298257544912754</v>
       </c>
       <c r="G81" s="5">
         <f t="shared" si="14"/>
@@ -9119,11 +9146,11 @@
       </c>
       <c r="H81" s="5">
         <f t="shared" si="15"/>
-        <v>112.19669904653441</v>
+        <v>243.01016298679724</v>
       </c>
       <c r="I81" s="5">
         <f t="shared" si="10"/>
-        <v>43.408534654016393</v>
+        <v>174.22199859427923</v>
       </c>
       <c r="J81" s="4">
         <f>m*g*G81/1000</f>
@@ -9131,27 +9158,27 @@
       </c>
       <c r="K81" s="5">
         <f>J81/(H81/1000)</f>
-        <v>9.1077187893080342</v>
+        <v>4.2049927930791018</v>
       </c>
       <c r="L81" s="5">
         <f>180-E81-A81</f>
-        <v>24.792934467761611</v>
+        <v>29.699551120691922</v>
       </c>
       <c r="M81" s="5">
         <f t="shared" si="11"/>
-        <v>0.43271833769362805</v>
+        <v>0.5183549534204458</v>
       </c>
       <c r="N81" s="5">
         <f t="shared" si="16"/>
-        <v>1.8215437578616069</v>
+        <v>0.8409985586158204</v>
       </c>
       <c r="O81" s="5">
         <f t="shared" si="17"/>
-        <v>5.4728826342550576</v>
+        <v>2.8138926300732243</v>
       </c>
       <c r="P81" s="4">
         <f t="shared" si="18"/>
-        <v>0.71147474245315745</v>
+        <v>0.68940369436793991</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.45">
@@ -9173,11 +9200,11 @@
       </c>
       <c r="E82" s="5">
         <f t="shared" si="13"/>
-        <v>119.15611861485553</v>
+        <v>114.30080761491068</v>
       </c>
       <c r="F82" s="4">
         <f t="shared" si="1"/>
-        <v>2.079666593726134</v>
+        <v>1.9949254305687982</v>
       </c>
       <c r="G82" s="5">
         <f t="shared" si="14"/>
@@ -9185,11 +9212,11 @@
       </c>
       <c r="H82" s="5">
         <f t="shared" si="15"/>
-        <v>115.83585288453692</v>
+        <v>249.83292036231018</v>
       </c>
       <c r="I82" s="5">
         <f t="shared" si="10"/>
-        <v>45.278322646754773</v>
+        <v>179.27539012452803</v>
       </c>
       <c r="J82" s="4">
         <f>m*g*G82/1000</f>
@@ -9197,27 +9224,27 @@
       </c>
       <c r="K82" s="5">
         <f>J82/(H82/1000)</f>
-        <v>9.0484948158675902</v>
+        <v>4.1953642970562486</v>
       </c>
       <c r="L82" s="5">
         <f>180-E82-A82</f>
-        <v>25.843881385144471</v>
+        <v>30.699192385089319</v>
       </c>
       <c r="M82" s="5">
         <f t="shared" si="11"/>
-        <v>0.45106082166564376</v>
+        <v>0.53580198482297958</v>
       </c>
       <c r="N82" s="5">
         <f t="shared" si="16"/>
-        <v>1.8096989631735181</v>
+        <v>0.83907285941124976</v>
       </c>
       <c r="O82" s="5">
         <f t="shared" si="17"/>
-        <v>5.5731266493111669</v>
+        <v>2.8633474239650498</v>
       </c>
       <c r="P82" s="4">
         <f t="shared" si="18"/>
-        <v>0.72450646441045174</v>
+        <v>0.70152011887143728</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.45">
@@ -9239,11 +9266,11 @@
       </c>
       <c r="E83" s="5">
         <f t="shared" si="13"/>
-        <v>117.11844842942493</v>
+        <v>112.30555217761685</v>
       </c>
       <c r="F83" s="4">
         <f t="shared" si="1"/>
-        <v>2.0441025399206469</v>
+        <v>1.9601016537697016</v>
       </c>
       <c r="G83" s="5">
         <f t="shared" si="14"/>
@@ -9251,11 +9278,11 @@
       </c>
       <c r="H83" s="5">
         <f t="shared" si="15"/>
-        <v>119.41105106810814</v>
+        <v>256.56364681279723</v>
       </c>
       <c r="I83" s="5">
         <f t="shared" si="10"/>
-        <v>47.10564749227845</v>
+        <v>184.25824323696753</v>
       </c>
       <c r="J83" s="4">
         <f>m*g*G83/1000</f>
@@ -9263,27 +9290,27 @@
       </c>
       <c r="K83" s="5">
         <f>J83/(H83/1000)</f>
-        <v>8.9950214941596105</v>
+        <v>4.1865049251562469</v>
       </c>
       <c r="L83" s="5">
         <f>180-E83-A83</f>
-        <v>26.88155157057507</v>
+        <v>31.694447822383154</v>
       </c>
       <c r="M83" s="5">
         <f t="shared" si="11"/>
-        <v>0.46917158295118783</v>
+        <v>0.55317246910213302</v>
       </c>
       <c r="N83" s="5">
         <f t="shared" si="16"/>
-        <v>1.7990042988319221</v>
+        <v>0.83730098503124939</v>
       </c>
       <c r="O83" s="5">
         <f t="shared" si="17"/>
-        <v>5.6716864189021994</v>
+        <v>2.9119720931047017</v>
       </c>
       <c r="P83" s="4">
         <f t="shared" si="18"/>
-        <v>0.73731923445728587</v>
+        <v>0.71343316281065183</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.45">
@@ -9305,11 +9332,11 @@
       </c>
       <c r="E84" s="5">
         <f t="shared" si="13"/>
-        <v>115.09265108610727</v>
+        <v>110.31432333090703</v>
       </c>
       <c r="F84" s="4">
         <f t="shared" si="1"/>
-        <v>2.0087457063015997</v>
+        <v>1.9253481542339259</v>
       </c>
       <c r="G84" s="5">
         <f t="shared" si="14"/>
@@ -9317,11 +9344,11 @@
       </c>
       <c r="H84" s="5">
         <f t="shared" si="15"/>
-        <v>122.92469666477058</v>
+        <v>263.20210159116039</v>
       </c>
       <c r="I84" s="5">
         <f t="shared" si="10"/>
-        <v>48.893444677260703</v>
+        <v>189.17084960365051</v>
       </c>
       <c r="J84" s="4">
         <f>m*g*G84/1000</f>
@@ -9329,27 +9356,27 @@
       </c>
       <c r="K84" s="5">
         <f>J84/(H84/1000)</f>
-        <v>8.9464743435420537</v>
+        <v>4.1783201511336046</v>
       </c>
       <c r="L84" s="5">
         <f>180-E84-A84</f>
-        <v>27.907348913892733</v>
+        <v>32.68567666909297</v>
       </c>
       <c r="M84" s="5">
         <f t="shared" si="11"/>
-        <v>0.48707512405029169</v>
+        <v>0.57047267611796548</v>
       </c>
       <c r="N84" s="5">
         <f t="shared" si="16"/>
-        <v>1.7892948687084109</v>
+        <v>0.83566403022672098</v>
       </c>
       <c r="O84" s="5">
         <f t="shared" si="17"/>
-        <v>5.7685460681264153</v>
+        <v>2.9597510888526894</v>
       </c>
       <c r="P84" s="4">
         <f t="shared" si="18"/>
-        <v>0.74991098885643392</v>
+        <v>0.72513901676890891</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.45">
@@ -9371,11 +9398,11 @@
       </c>
       <c r="E85" s="5">
         <f t="shared" si="13"/>
-        <v>113.07754039322876</v>
+        <v>108.3268071909871</v>
       </c>
       <c r="F85" s="4">
         <f t="shared" si="1"/>
-        <v>1.9735753899187254</v>
+        <v>1.8906594536557948</v>
       </c>
       <c r="G85" s="5">
         <f t="shared" si="14"/>
@@ -9383,11 +9410,11 @@
       </c>
       <c r="H85" s="5">
         <f t="shared" si="15"/>
-        <v>126.37870772478618</v>
+        <v>269.74787460744687</v>
       </c>
       <c r="I85" s="5">
         <f t="shared" si="10"/>
-        <v>50.64415796210838</v>
+        <v>194.01332484476907</v>
       </c>
       <c r="J85" s="4">
         <f>m*g*G85/1000</f>
@@ -9395,27 +9422,27 @@
       </c>
       <c r="K85" s="5">
         <f>J85/(H85/1000)</f>
-        <v>8.9021746367846557</v>
+        <v>4.1707291602369265</v>
       </c>
       <c r="L85" s="5">
         <f>180-E85-A85</f>
-        <v>28.922459606771241</v>
+        <v>33.673192809012903</v>
       </c>
       <c r="M85" s="5">
         <f t="shared" si="11"/>
-        <v>0.50479214791322258</v>
+        <v>0.58770808417615328</v>
       </c>
       <c r="N85" s="5">
         <f t="shared" si="16"/>
-        <v>1.7804349273569313</v>
+        <v>0.83414583204738535</v>
       </c>
       <c r="O85" s="5">
         <f t="shared" si="17"/>
-        <v>5.8636890742147951</v>
+        <v>3.0066696548584702</v>
       </c>
       <c r="P85" s="4">
         <f t="shared" si="18"/>
-        <v>0.76227957964792337</v>
+        <v>0.73663406544032528</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.45">
@@ -9437,11 +9464,11 @@
       </c>
       <c r="E86" s="5">
         <f t="shared" si="13"/>
-        <v>111.07210608686977</v>
+        <v>106.34272842401303</v>
       </c>
       <c r="F86" s="4">
         <f t="shared" si="1"/>
-        <v>1.9385739583403123</v>
+        <v>1.856030746553188</v>
       </c>
       <c r="G86" s="5">
         <f t="shared" si="14"/>
@@ -9449,11 +9476,11 @@
       </c>
       <c r="H86" s="5">
         <f t="shared" si="15"/>
-        <v>129.774612988385</v>
+        <v>276.20041627494265</v>
       </c>
       <c r="I86" s="5">
         <f t="shared" si="10"/>
-        <v>52.359834928054028</v>
+        <v>198.78563821461168</v>
       </c>
       <c r="J86" s="4">
         <f>m*g*G86/1000</f>
@@ -9461,27 +9488,27 @@
       </c>
       <c r="K86" s="5">
         <f>J86/(H86/1000)</f>
-        <v>8.8615583740810013</v>
+        <v>4.1636624737218924</v>
       </c>
       <c r="L86" s="5">
         <f>180-E86-A86</f>
-        <v>29.927893913130234</v>
+        <v>34.657271575986968</v>
       </c>
       <c r="M86" s="5">
         <f t="shared" si="11"/>
-        <v>0.52234028697169244</v>
+        <v>0.60488349875881675</v>
       </c>
       <c r="N86" s="5">
         <f t="shared" si="16"/>
-        <v>1.7723116748162004</v>
+        <v>0.83273249474437849</v>
       </c>
       <c r="O86" s="5">
         <f t="shared" si="17"/>
-        <v>5.957098553079553</v>
+        <v>3.052713721854309</v>
       </c>
       <c r="P86" s="4">
         <f t="shared" si="18"/>
-        <v>0.7744228119003419</v>
+        <v>0.74791486185430578</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.45">
@@ -9503,11 +9530,11 @@
       </c>
       <c r="E87" s="5">
         <f t="shared" si="13"/>
-        <v>109.07548165394026</v>
+        <v>104.3618446633339</v>
       </c>
       <c r="F87" s="4">
         <f t="shared" si="1"/>
-        <v>1.9037262880599277</v>
+        <v>1.8214578028300497</v>
       </c>
       <c r="G87" s="5">
         <f t="shared" si="14"/>
@@ -9515,11 +9542,11 @@
       </c>
       <c r="H87" s="5">
         <f t="shared" si="15"/>
-        <v>133.11362569607468</v>
+        <v>282.55906211356933</v>
       </c>
       <c r="I87" s="5">
         <f t="shared" si="10"/>
-        <v>54.042200629421501</v>
+        <v>203.48763704691615</v>
       </c>
       <c r="J87" s="4">
         <f>m*g*G87/1000</f>
@@ -9527,27 +9554,27 @@
       </c>
       <c r="K87" s="5">
         <f>J87/(H87/1000)</f>
-        <v>8.8241529107474488</v>
+        <v>4.157060045641181</v>
       </c>
       <c r="L87" s="5">
         <f>180-E87-A87</f>
-        <v>30.924518346059742</v>
+        <v>35.638155336666102</v>
       </c>
       <c r="M87" s="5">
         <f t="shared" si="11"/>
-        <v>0.53973466473213372</v>
+        <v>0.62200314996201167</v>
       </c>
       <c r="N87" s="5">
         <f t="shared" si="16"/>
-        <v>1.7648305821494898</v>
+        <v>0.83141200912823621</v>
       </c>
       <c r="O87" s="5">
         <f t="shared" si="17"/>
-        <v>6.0487574572092884</v>
+        <v>3.0978698260343576</v>
       </c>
       <c r="P87" s="4">
         <f t="shared" si="18"/>
-        <v>0.78633846943720742</v>
+        <v>0.75897810737841753</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.45">
@@ -9569,11 +9596,11 @@
       </c>
       <c r="E88" s="5">
         <f t="shared" si="13"/>
-        <v>107.08691921119697</v>
+        <v>102.38394189534441</v>
       </c>
       <c r="F88" s="4">
         <f t="shared" si="1"/>
-        <v>1.8690193260525561</v>
+        <v>1.7869368872443234</v>
       </c>
       <c r="G88" s="5">
         <f t="shared" si="14"/>
@@ -9581,11 +9608,11 @@
       </c>
       <c r="H88" s="5">
         <f t="shared" si="15"/>
-        <v>136.3967012901544</v>
+        <v>288.82305318957458</v>
       </c>
       <c r="I88" s="5">
         <f t="shared" si="10"/>
-        <v>55.692715139236441</v>
+        <v>208.11906703865662</v>
       </c>
       <c r="J88" s="4">
         <f>m*g*G88/1000</f>
@@ -9593,27 +9620,27 @@
       </c>
       <c r="K88" s="5">
         <f>J88/(H88/1000)</f>
-        <v>8.7895591050084558</v>
+        <v>4.1508697262164036</v>
       </c>
       <c r="L88" s="5">
         <f>180-E88-A88</f>
-        <v>31.913080788803029</v>
+        <v>36.616058104655593</v>
       </c>
       <c r="M88" s="5">
         <f t="shared" si="11"/>
-        <v>0.55698833421956195</v>
+        <v>0.63907077302779458</v>
       </c>
       <c r="N88" s="5">
         <f t="shared" si="16"/>
-        <v>1.7579118210016913</v>
+        <v>0.83017394524328081</v>
       </c>
       <c r="O88" s="5">
         <f t="shared" si="17"/>
-        <v>6.1386487159254211</v>
+        <v>3.1421250455450758</v>
       </c>
       <c r="P88" s="4">
         <f t="shared" si="18"/>
-        <v>0.79802433307030474</v>
+        <v>0.76982063615854357</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.45">
@@ -9635,11 +9662,11 @@
       </c>
       <c r="E89" s="5">
         <f t="shared" si="13"/>
-        <v>105.10576965593295</v>
+        <v>100.40883062084569</v>
       </c>
       <c r="F89" s="4">
         <f t="shared" si="1"/>
-        <v>1.8344417433387774</v>
+        <v>1.7524646924110594</v>
       </c>
       <c r="G89" s="5">
         <f t="shared" si="14"/>
@@ -9647,11 +9674,11 @@
       </c>
       <c r="H89" s="5">
         <f t="shared" si="15"/>
-        <v>139.62458307810317</v>
+        <v>294.99155322030322</v>
       </c>
       <c r="I89" s="5">
         <f t="shared" si="10"/>
-        <v>57.312619058899031</v>
+        <v>212.67958920109908</v>
       </c>
       <c r="J89" s="4">
         <f>m*g*G89/1000</f>
@@ -9659,27 +9686,27 @@
       </c>
       <c r="K89" s="5">
         <f>J89/(H89/1000)</f>
-        <v>8.757437511159857</v>
+        <v>4.1450460122668975</v>
       </c>
       <c r="L89" s="5">
         <f>180-E89-A89</f>
-        <v>32.894230344067054</v>
+        <v>37.591169379154309</v>
       </c>
       <c r="M89" s="5">
         <f t="shared" si="11"/>
-        <v>0.57411262441339728</v>
+        <v>0.6560896753411154</v>
       </c>
       <c r="N89" s="5">
         <f t="shared" si="16"/>
-        <v>1.7514875022319716</v>
+        <v>0.8290092024533795</v>
       </c>
       <c r="O89" s="5">
         <f t="shared" si="17"/>
-        <v>6.2267553375213041</v>
+        <v>3.1854669509789457</v>
       </c>
       <c r="P89" s="4">
         <f t="shared" si="18"/>
-        <v>0.80947819387776954</v>
+        <v>0.78043940298984171</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.45">
@@ -9701,11 +9728,11 @@
       </c>
       <c r="E90" s="5">
         <f t="shared" si="13"/>
-        <v>103.13146681124118</v>
+        <v>98.436342642170629</v>
       </c>
       <c r="F90" s="4">
         <f t="shared" si="1"/>
-        <v>1.799983658267416</v>
+        <v>1.7180382827271719</v>
       </c>
       <c r="G90" s="5">
         <f t="shared" si="14"/>
@@ -9713,11 +9740,11 @@
       </c>
       <c r="H90" s="5">
         <f t="shared" si="15"/>
-        <v>142.79783877196394</v>
+        <v>301.06366298677131</v>
       </c>
       <c r="I90" s="5">
         <f t="shared" si="10"/>
-        <v>58.90296990608779</v>
+        <v>217.16879412089514</v>
       </c>
       <c r="J90" s="4">
         <f>m*g*G90/1000</f>
@@ -9725,27 +9752,27 @@
       </c>
       <c r="K90" s="5">
         <f>J90/(H90/1000)</f>
-        <v>8.7274975803296346</v>
+        <v>4.1395490242652686</v>
       </c>
       <c r="L90" s="5">
         <f>180-E90-A90</f>
-        <v>33.868533188758818</v>
+        <v>38.563657357829371</v>
       </c>
       <c r="M90" s="5">
         <f t="shared" si="11"/>
-        <v>0.59111741696481557</v>
+        <v>0.67306279250505963</v>
       </c>
       <c r="N90" s="5">
         <f t="shared" si="16"/>
-        <v>1.745499516065927</v>
+        <v>0.82790980485305377</v>
       </c>
       <c r="O90" s="5">
         <f t="shared" si="17"/>
-        <v>6.313060485776127</v>
+        <v>3.2278835667624186</v>
       </c>
       <c r="P90" s="4">
         <f t="shared" si="18"/>
-        <v>0.82069786315089654</v>
+        <v>0.79083147385679253</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.45">
@@ -9767,11 +9794,11 @@
       </c>
       <c r="E91" s="5">
         <f t="shared" si="13"/>
-        <v>101.16351463701157</v>
+        <v>96.466328358916144</v>
       </c>
       <c r="F91" s="4">
         <f t="shared" si="1"/>
-        <v>1.7656364133053282</v>
+        <v>1.6836550471730649</v>
       </c>
       <c r="G91" s="5">
         <f t="shared" si="14"/>
@@ -9779,11 +9806,11 @@
       </c>
       <c r="H91" s="5">
         <f t="shared" si="15"/>
-        <v>145.91689002354218</v>
+        <v>307.03843255692493</v>
       </c>
       <c r="I91" s="5">
         <f t="shared" si="10"/>
-        <v>60.464671500758399</v>
+        <v>221.58621403414116</v>
       </c>
       <c r="J91" s="4">
         <f>m*g*G91/1000</f>
@@ -9791,27 +9818,27 @@
       </c>
       <c r="K91" s="5">
         <f>J91/(H91/1000)</f>
-        <v>8.6994891265964682</v>
+        <v>4.1343436636754936</v>
       </c>
       <c r="L91" s="5">
         <f>180-E91-A91</f>
-        <v>34.836485362988427</v>
+        <v>39.533671641083856</v>
       </c>
       <c r="M91" s="5">
         <f t="shared" si="11"/>
-        <v>0.60801136940695999</v>
+        <v>0.68999273553922325</v>
       </c>
       <c r="N91" s="5">
         <f t="shared" si="16"/>
-        <v>1.7398978253192938</v>
+        <v>0.82686873273509875</v>
       </c>
       <c r="O91" s="5">
         <f t="shared" si="17"/>
-        <v>6.3975475389577063</v>
+        <v>3.2693633410667164</v>
       </c>
       <c r="P91" s="4">
         <f t="shared" si="18"/>
-        <v>0.83168118006450187</v>
+        <v>0.80099401856134556</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.45">
@@ -9833,11 +9860,11 @@
       </c>
       <c r="E92" s="5">
         <f t="shared" si="13"/>
-        <v>99.20147682124319</v>
+        <v>94.498654479863461</v>
       </c>
       <c r="F92" s="4">
         <f t="shared" si="1"/>
-        <v>1.7313923933715321</v>
+        <v>1.6493126593781069</v>
       </c>
       <c r="G92" s="5">
         <f t="shared" si="14"/>
@@ -9845,11 +9872,11 @@
       </c>
       <c r="H92" s="5">
         <f t="shared" si="15"/>
-        <v>148.98203651994618</v>
+        <v>312.91487171629194</v>
       </c>
       <c r="I92" s="5">
         <f t="shared" si="10"/>
-        <v>61.998497913811065</v>
+        <v>225.93133311015683</v>
       </c>
       <c r="J92" s="4">
         <f>m*g*G92/1000</f>
@@ -9857,27 +9884,27 @@
       </c>
       <c r="K92" s="5">
         <f>J92/(H92/1000)</f>
-        <v>8.6731955197436736</v>
+        <v>4.1293989147266528</v>
       </c>
       <c r="L92" s="5">
         <f>180-E92-A92</f>
-        <v>35.79852317875681</v>
+        <v>40.501345520136539</v>
       </c>
       <c r="M92" s="5">
         <f t="shared" si="11"/>
-        <v>0.62480209682081289</v>
+        <v>0.70688183081423794</v>
       </c>
       <c r="N92" s="5">
         <f t="shared" si="16"/>
-        <v>1.7346391039487348</v>
+        <v>0.8258797829453306</v>
       </c>
       <c r="O92" s="5">
         <f t="shared" si="17"/>
-        <v>6.4802001366565971</v>
+        <v>3.3098951224196278</v>
       </c>
       <c r="P92" s="4">
         <f t="shared" si="18"/>
-        <v>0.84242601776535764</v>
+        <v>0.81092430499280888</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.45">
@@ -9899,11 +9926,11 @@
       </c>
       <c r="E93" s="5">
         <f t="shared" si="13"/>
-        <v>97.244968239164592</v>
+        <v>92.533202077619393</v>
       </c>
       <c r="F93" s="4">
         <f t="shared" si="1"/>
-        <v>1.6972448767707347</v>
+        <v>1.615009043667716</v>
       </c>
       <c r="G93" s="5">
         <f t="shared" si="14"/>
@@ -9911,11 +9938,11 @@
       </c>
       <c r="H93" s="5">
         <f t="shared" si="15"/>
-        <v>151.993475809497</v>
+        <v>318.69195892139965</v>
       </c>
       <c r="I93" s="5">
         <f t="shared" si="10"/>
-        <v>63.505113148498396</v>
+        <v>230.20359626040104</v>
       </c>
       <c r="J93" s="4">
         <f>m*g*G93/1000</f>
@@ -9923,27 +9950,27 @@
       </c>
       <c r="K93" s="5">
         <f>J93/(H93/1000)</f>
-        <v>8.6484282083711204</v>
+        <v>4.1246872626724453</v>
       </c>
       <c r="L93" s="5">
         <f>180-E93-A93</f>
-        <v>36.755031760835408</v>
+        <v>41.466797922380607</v>
       </c>
       <c r="M93" s="5">
         <f t="shared" si="11"/>
-        <v>0.64149632090166686</v>
+        <v>0.7237321540046856</v>
       </c>
       <c r="N93" s="5">
         <f t="shared" si="16"/>
-        <v>1.7296856416742241</v>
+        <v>0.82493745253448914</v>
       </c>
       <c r="O93" s="5">
         <f t="shared" si="17"/>
-        <v>6.561002218013698</v>
+        <v>3.3494681416092646</v>
       </c>
       <c r="P93" s="4">
         <f t="shared" si="18"/>
-        <v>0.85293028834178075</v>
+        <v>0.82061969469426976</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.45">
@@ -9965,11 +9992,11 @@
       </c>
       <c r="E94" s="5">
         <f t="shared" si="13"/>
-        <v>95.293647892295553</v>
+        <v>90.56986492715788</v>
       </c>
       <c r="F94" s="4">
         <f t="shared" si="1"/>
-        <v>1.6631879119567121</v>
+        <v>1.5807423460654393</v>
       </c>
       <c r="G94" s="5">
         <f t="shared" si="14"/>
@@ -9977,11 +10004,11 @@
       </c>
       <c r="H94" s="5">
         <f t="shared" si="15"/>
-        <v>154.95131974361584</v>
+        <v>324.36864902847134</v>
       </c>
       <c r="I94" s="5">
         <f t="shared" si="10"/>
-        <v>64.985087440226337</v>
+        <v>234.40241672508182</v>
       </c>
       <c r="J94" s="4">
         <f>m*g*G94/1000</f>
@@ -9989,27 +10016,27 @@
       </c>
       <c r="K94" s="5">
         <f>J94/(H94/1000)</f>
-        <v>8.6250222782757699</v>
+        <v>4.1201842065803707</v>
       </c>
       <c r="L94" s="5">
         <f>180-E94-A94</f>
-        <v>37.706352107704447</v>
+        <v>42.43013507284212</v>
       </c>
       <c r="M94" s="5">
         <f t="shared" si="11"/>
-        <v>0.65809999319574619</v>
+        <v>0.74054555908701902</v>
       </c>
       <c r="N94" s="5">
         <f t="shared" si="16"/>
-        <v>1.725004455655154</v>
+        <v>0.82403684131607413</v>
       </c>
       <c r="O94" s="5">
         <f t="shared" si="17"/>
-        <v>6.6399380537446095</v>
+        <v>3.3880719977831513</v>
       </c>
       <c r="P94" s="4">
         <f t="shared" si="18"/>
-        <v>0.86319194698679924</v>
+        <v>0.83007763945687207</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.45">
@@ -10031,11 +10058,11 @@
       </c>
       <c r="E95" s="5">
         <f t="shared" si="13"/>
-        <v>93.34721303064515</v>
+        <v>88.608548080849943</v>
       </c>
       <c r="F95" s="4">
         <f t="shared" si="1"/>
-        <v>1.6292162149453124</v>
+        <v>1.5465109094225342</v>
       </c>
       <c r="G95" s="5">
         <f t="shared" si="14"/>
@@ -10043,11 +10070,11 @@
       </c>
       <c r="H95" s="5">
         <f t="shared" si="15"/>
-        <v>157.85560821247745</v>
+        <v>329.94388000094659</v>
       </c>
       <c r="I95" s="5">
         <f t="shared" si="10"/>
-        <v>66.438910852579099</v>
+        <v>238.52718264104823</v>
       </c>
       <c r="J95" s="4">
         <f>m*g*G95/1000</f>
@@ -10055,27 +10082,27 @@
       </c>
       <c r="K95" s="5">
         <f>J95/(H95/1000)</f>
-        <v>8.6028328238753247</v>
+        <v>4.1158678492815453</v>
       </c>
       <c r="L95" s="5">
         <f>180-E95-A95</f>
-        <v>38.65278696935485</v>
+        <v>43.391451919150057</v>
       </c>
       <c r="M95" s="5">
         <f t="shared" si="11"/>
-        <v>0.67461839768720266</v>
+        <v>0.75732370320998088</v>
       </c>
       <c r="N95" s="5">
         <f t="shared" si="16"/>
-        <v>1.720566564775065</v>
+        <v>0.82317356985630907</v>
       </c>
       <c r="O95" s="5">
         <f t="shared" si="17"/>
-        <v>6.7169922736006669</v>
+        <v>3.4256966478843669</v>
       </c>
       <c r="P95" s="4">
         <f t="shared" si="18"/>
-        <v>0.87320899556808673</v>
+        <v>0.83929567873166988</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.45">
@@ -10097,11 +10124,11 @@
       </c>
       <c r="E96" s="5">
         <f t="shared" si="13"/>
-        <v>91.405394228598851</v>
+        <v>86.649166641526477</v>
       </c>
       <c r="F96" s="4">
         <f t="shared" si="1"/>
-        <v>1.5953250833724724</v>
+        <v>1.5123132520038742</v>
       </c>
       <c r="G96" s="5">
         <f t="shared" si="14"/>
@@ -10109,11 +10136,11 @@
       </c>
       <c r="H96" s="5">
         <f t="shared" si="15"/>
-        <v>160.7063206984682</v>
+        <v>335.41657876093626</v>
       </c>
       <c r="I96" s="5">
         <f t="shared" si="10"/>
-        <v>67.867004693650273</v>
+        <v>242.57726275611833</v>
       </c>
       <c r="J96" s="4">
         <f>m*g*G96/1000</f>
@@ -10121,27 +10148,27 @@
       </c>
       <c r="K96" s="5">
         <f>J96/(H96/1000)</f>
-        <v>8.5817319635763205</v>
+        <v>4.1117185506496812</v>
       </c>
       <c r="L96" s="5">
         <f>180-E96-A96</f>
-        <v>39.594605771401149</v>
+        <v>44.350833358473523</v>
       </c>
       <c r="M96" s="5">
         <f t="shared" si="11"/>
-        <v>0.69105623674009931</v>
+        <v>0.77406806810869755</v>
       </c>
       <c r="N96" s="5">
         <f t="shared" si="16"/>
-        <v>1.7163463927152642</v>
+        <v>0.82234371012993623</v>
       </c>
       <c r="O96" s="5">
         <f t="shared" si="17"/>
-        <v>6.7921498903979529</v>
+        <v>3.4623323987491244</v>
       </c>
       <c r="P96" s="4">
         <f t="shared" si="18"/>
-        <v>0.88297948575173391</v>
+        <v>0.84827143769353552</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.45">
@@ -10163,11 +10190,11 @@
       </c>
       <c r="E97" s="5">
         <f t="shared" si="13"/>
-        <v>89.467951235439372</v>
+        <v>84.691644702196797</v>
       </c>
       <c r="F97" s="4">
         <f t="shared" si="1"/>
-        <v>1.5615103240721455</v>
+        <v>1.4781480489825465</v>
       </c>
       <c r="G97" s="5">
         <f t="shared" si="14"/>
@@ -10175,11 +10202,11 @@
       </c>
       <c r="H97" s="5">
         <f t="shared" si="15"/>
-        <v>163.50338605645217</v>
+        <v>340.7856663193399</v>
       </c>
       <c r="I97" s="5">
         <f t="shared" si="10"/>
-        <v>69.269731161724394</v>
+        <v>246.55201142461212</v>
       </c>
       <c r="J97" s="4">
         <f>m*g*G97/1000</f>
@@ -10187,27 +10214,27 @@
       </c>
       <c r="K97" s="5">
         <f>J97/(H97/1000)</f>
-        <v>8.5616063691732833</v>
+        <v>4.1077186331263142</v>
       </c>
       <c r="L97" s="5">
         <f>180-E97-A97</f>
-        <v>40.532048764560628</v>
+        <v>45.308355297803203</v>
       </c>
       <c r="M97" s="5">
         <f t="shared" si="11"/>
-        <v>0.70741770352048294</v>
+        <v>0.79077997861008187</v>
       </c>
       <c r="N97" s="5">
         <f t="shared" si="16"/>
-        <v>1.7123212738346567</v>
+        <v>0.82154372662526287</v>
       </c>
       <c r="O97" s="5">
         <f t="shared" si="17"/>
-        <v>6.8653963214035283</v>
+        <v>3.4979699013315142</v>
       </c>
       <c r="P97" s="4">
         <f t="shared" si="18"/>
-        <v>0.89250152178245867</v>
+        <v>0.857002625826221</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.45">
@@ -10229,11 +10256,11 @@
       </c>
       <c r="E98" s="5">
         <f t="shared" si="13"/>
-        <v>87.534669459547814</v>
+        <v>82.735914426679457</v>
       </c>
       <c r="F98" s="4">
         <f t="shared" si="1"/>
-        <v>1.5277681917140347</v>
+        <v>1.4440141163938331</v>
       </c>
       <c r="G98" s="5">
         <f t="shared" si="14"/>
@@ -10241,11 +10268,11 @@
       </c>
       <c r="H98" s="5">
         <f t="shared" si="15"/>
-        <v>166.2466908428562</v>
+        <v>346.05006229518006</v>
       </c>
       <c r="I98" s="5">
         <f t="shared" si="10"/>
-        <v>70.647401542361422</v>
+        <v>250.45077299468528</v>
       </c>
       <c r="J98" s="4">
         <f>m*g*G98/1000</f>
@@ -10253,27 +10280,27 @@
       </c>
       <c r="K98" s="5">
         <f>J98/(H98/1000)</f>
-        <v>8.5423552085774777</v>
+        <v>4.103852130559269</v>
       </c>
       <c r="L98" s="5">
         <f>180-E98-A98</f>
-        <v>41.465330540452186</v>
+        <v>46.264085573320543</v>
       </c>
       <c r="M98" s="5">
         <f t="shared" si="11"/>
-        <v>0.72370654335865037</v>
+        <v>0.80746061867885199</v>
       </c>
       <c r="N98" s="5">
         <f t="shared" si="16"/>
-        <v>1.7084710417154956</v>
+        <v>0.8207704261118538</v>
       </c>
       <c r="O98" s="5">
         <f t="shared" si="17"/>
-        <v>6.9367174076356353</v>
+        <v>3.5326001466307817</v>
       </c>
       <c r="P98" s="4">
         <f t="shared" si="18"/>
-        <v>0.90177326299263261</v>
+        <v>0.86548703592454146</v>
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.45">
@@ -10295,11 +10322,11 @@
       </c>
       <c r="E99" s="5">
         <f t="shared" si="13"/>
-        <v>85.605356974421767</v>
+        <v>80.781915249913084</v>
       </c>
       <c r="F99" s="4">
         <f t="shared" si="1"/>
-        <v>1.494095336548751</v>
+        <v>1.4099103971780012</v>
       </c>
       <c r="G99" s="5">
         <f t="shared" si="14"/>
@@ -10307,11 +10334,11 @@
       </c>
       <c r="H99" s="5">
         <f t="shared" si="15"/>
-        <v>168.93608644916083</v>
+        <v>351.20868891534826</v>
       </c>
       <c r="I99" s="5">
         <f t="shared" si="10"/>
-        <v>72.000283212511064</v>
+        <v>254.27288567869851</v>
       </c>
       <c r="J99" s="4">
         <f>m*g*G99/1000</f>
@@ -10319,27 +10346,27 @@
       </c>
       <c r="K99" s="5">
         <f>J99/(H99/1000)</f>
-        <v>8.5238884231675538</v>
+        <v>4.1001045731141241</v>
       </c>
       <c r="L99" s="5">
         <f>180-E99-A99</f>
-        <v>42.394643025578233</v>
+        <v>47.218084750086916</v>
       </c>
       <c r="M99" s="5">
         <f t="shared" si="11"/>
-        <v>0.73992610600399078</v>
+        <v>0.82411104537474056</v>
       </c>
       <c r="N99" s="5">
         <f t="shared" si="16"/>
-        <v>1.7047776846335108</v>
+        <v>0.82002091462282489</v>
       </c>
       <c r="O99" s="5">
         <f t="shared" si="17"/>
-        <v>7.0060994314752154</v>
+        <v>3.5662144629821961</v>
       </c>
       <c r="P99" s="4">
         <f t="shared" si="18"/>
-        <v>0.91079292609177798</v>
+        <v>0.87372254343063804</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.45">
@@ -10361,11 +10388,11 @@
       </c>
       <c r="E100" s="5">
         <f t="shared" si="13"/>
-        <v>83.679841957061001</v>
+        <v>78.829593180348809</v>
       </c>
       <c r="F100" s="4">
         <f t="shared" si="1"/>
-        <v>1.46048875969921</v>
+        <v>1.3758359490047549</v>
       </c>
       <c r="G100" s="5">
         <f t="shared" si="14"/>
@@ -10373,11 +10400,11 @@
       </c>
       <c r="H100" s="5">
         <f t="shared" si="15"/>
-        <v>171.57139524419853</v>
+        <v>356.26047457036674</v>
       </c>
       <c r="I100" s="5">
         <f t="shared" si="10"/>
-        <v>73.328605656097864</v>
+        <v>258.01768498226608</v>
       </c>
       <c r="J100" s="4">
         <f>m*g*G100/1000</f>
@@ -10385,27 +10412,27 @@
       </c>
       <c r="K100" s="5">
         <f>J100/(H100/1000)</f>
-        <v>8.5061252777670013</v>
+        <v>4.0964628023594454</v>
       </c>
       <c r="L100" s="5">
         <f>180-E100-A100</f>
-        <v>43.320158042938999</v>
+        <v>48.170406819651191</v>
       </c>
       <c r="M100" s="5">
         <f t="shared" si="11"/>
-        <v>0.75607939033358862</v>
+        <v>0.84073220102804369</v>
       </c>
       <c r="N100" s="5">
         <f t="shared" si="16"/>
-        <v>1.7012250555534003</v>
+        <v>0.81929256047188914</v>
       </c>
       <c r="O100" s="5">
         <f t="shared" si="17"/>
-        <v>7.073529132875926</v>
+        <v>3.5988045144399017</v>
       </c>
       <c r="P100" s="4">
         <f t="shared" si="18"/>
-        <v>0.91955878727387041</v>
+        <v>0.88170710603777591</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.45">
@@ -10427,11 +10454,11 @@
       </c>
       <c r="E101" s="5">
         <f t="shared" si="13"/>
-        <v>81.757970486687583</v>
+        <v>76.878900189769823</v>
       </c>
       <c r="F101" s="4">
         <f t="shared" si="1"/>
-        <v>1.426945774741049</v>
+        <v>1.3417899336235768</v>
       </c>
       <c r="G101" s="5">
         <f t="shared" si="14"/>
@@ -10439,11 +10466,11 @@
       </c>
       <c r="H101" s="5">
         <f t="shared" si="15"/>
-        <v>174.15241588988332</v>
+        <v>361.20435698914002</v>
       </c>
       <c r="I101" s="5">
         <f t="shared" si="10"/>
-        <v>74.632565655739597</v>
+        <v>261.68450675499628</v>
       </c>
       <c r="J101" s="4">
         <f>m*g*G101/1000</f>
@@ -10451,27 +10478,27 @@
       </c>
       <c r="K101" s="5">
         <f>J101/(H101/1000)</f>
-        <v>8.4889931340625111</v>
+        <v>4.0929148116949969</v>
       </c>
       <c r="L101" s="5">
         <f>180-E101-A101</f>
-        <v>44.242029513312417</v>
+        <v>49.121099810230177</v>
       </c>
       <c r="M101" s="5">
         <f t="shared" si="11"/>
-        <v>0.77216908277180618</v>
+        <v>0.85732492388927839</v>
       </c>
       <c r="N101" s="5">
         <f t="shared" si="16"/>
-        <v>1.6977986268125023</v>
+        <v>0.81858296233899941</v>
       </c>
       <c r="O101" s="5">
         <f t="shared" si="17"/>
-        <v>7.1389937243829724</v>
+        <v>3.6303623000331946</v>
       </c>
       <c r="P101" s="4">
         <f t="shared" si="18"/>
-        <v>0.92806918416978645</v>
+        <v>0.88943876350813267</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.45">
@@ -10493,11 +10520,11 @@
       </c>
       <c r="E102" s="5">
         <f t="shared" si="13"/>
-        <v>79.839604645408713</v>
+        <v>74.929793678281015</v>
       </c>
       <c r="F102" s="4">
         <f t="shared" si="1"/>
-        <v>1.3934639745529418</v>
+        <v>1.3077716075260364</v>
       </c>
       <c r="G102" s="5">
         <f t="shared" si="14"/>
@@ -10505,11 +10532,11 @@
       </c>
       <c r="H102" s="5">
         <f t="shared" si="15"/>
-        <v>176.67892796383842</v>
+        <v>366.03928608538945</v>
       </c>
       <c r="I102" s="5">
         <f t="shared" si="10"/>
-        <v>75.91233179410338</v>
+        <v>265.27268991565438</v>
       </c>
       <c r="J102" s="4">
         <f>m*g*G102/1000</f>
@@ -10517,27 +10544,27 @@
       </c>
       <c r="K102" s="5">
         <f>J102/(H102/1000)</f>
-        <v>8.4724264081743108</v>
+        <v>4.0894496081482234</v>
       </c>
       <c r="L102" s="5">
         <f>180-E102-A102</f>
-        <v>45.160395354591287</v>
+        <v>50.070206321718985</v>
       </c>
       <c r="M102" s="5">
         <f t="shared" si="11"/>
-        <v>0.78819759043997006</v>
+        <v>0.87388995746687548</v>
       </c>
       <c r="N102" s="5">
         <f t="shared" si="16"/>
-        <v>1.6944852816348623</v>
+        <v>0.81788992162964469</v>
       </c>
       <c r="O102" s="5">
         <f t="shared" si="17"/>
-        <v>7.2024809051168805</v>
+        <v>3.6608801537198263</v>
       </c>
       <c r="P102" s="4">
         <f t="shared" si="18"/>
-        <v>0.93632251766519448</v>
+        <v>0.8969156376613574</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.45">
@@ -10559,11 +10586,11 @@
       </c>
       <c r="E103" s="5">
         <f t="shared" si="13"/>
-        <v>77.924620873194641</v>
+        <v>72.982236004174069</v>
       </c>
       <c r="F103" s="4">
         <f t="shared" si="1"/>
-        <v>1.3600412026055453</v>
+        <v>1.2737803137403876</v>
       </c>
       <c r="G103" s="5">
         <f t="shared" si="14"/>
@@ -10571,11 +10598,11 @@
       </c>
       <c r="H103" s="5">
         <f t="shared" si="15"/>
-        <v>179.15069599780014</v>
+        <v>370.76422652004572</v>
       </c>
       <c r="I103" s="5">
         <f t="shared" si="10"/>
-        <v>77.168048373815054</v>
+        <v>268.78157889606064</v>
       </c>
       <c r="J103" s="4">
         <f>m*g*G103/1000</f>
@@ -10583,27 +10610,27 @@
       </c>
       <c r="K103" s="5">
         <f>J103/(H103/1000)</f>
-        <v>8.4563656807941996</v>
+        <v>4.0860570922537045</v>
       </c>
       <c r="L103" s="5">
         <f>180-E103-A103</f>
-        <v>46.075379126805359</v>
+        <v>51.017763995825931</v>
       </c>
       <c r="M103" s="5">
         <f t="shared" si="11"/>
-        <v>0.80416706986742337</v>
+        <v>0.89042795873258107</v>
       </c>
       <c r="N103" s="5">
         <f t="shared" si="16"/>
-        <v>1.69127313615884</v>
+        <v>0.81721141845074097</v>
       </c>
       <c r="O103" s="5">
         <f t="shared" si="17"/>
-        <v>7.2639788738399496</v>
+        <v>3.6903507448933777</v>
       </c>
       <c r="P103" s="4">
         <f t="shared" si="18"/>
-        <v>0.9443172535991935</v>
+        <v>0.90413593249887758</v>
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.45">
@@ -10625,11 +10652,11 @@
       </c>
       <c r="E104" s="5">
         <f t="shared" si="13"/>
-        <v>76.012908538097008</v>
+        <v>71.036194069987658</v>
       </c>
       <c r="F104" s="4">
         <f t="shared" si="1"/>
-        <v>1.3266755280071023</v>
+        <v>1.2398154746069558</v>
       </c>
       <c r="G104" s="5">
         <f t="shared" si="14"/>
@@ -10637,11 +10664,11 @@
       </c>
       <c r="H104" s="5">
         <f t="shared" si="15"/>
-        <v>181.56747302113754</v>
+        <v>375.37816001696024</v>
       </c>
       <c r="I104" s="5">
         <f t="shared" si="10"/>
-        <v>78.399838845296713</v>
+        <v>272.21052584111942</v>
       </c>
       <c r="J104" s="4">
         <f>m*g*G104/1000</f>
@@ -10649,27 +10676,27 @@
       </c>
       <c r="K104" s="5">
         <f>J104/(H104/1000)</f>
-        <v>8.4407569343478546</v>
+        <v>4.0827279532883312</v>
       </c>
       <c r="L104" s="5">
         <f>180-E104-A104</f>
-        <v>46.987091461902992</v>
+        <v>51.963805930012342</v>
       </c>
       <c r="M104" s="5">
         <f t="shared" si="11"/>
-        <v>0.82007945194592302</v>
+        <v>0.90693950534606949</v>
       </c>
       <c r="N104" s="5">
         <f t="shared" si="16"/>
-        <v>1.688151386869571</v>
+        <v>0.8165455906576663</v>
       </c>
       <c r="O104" s="5">
         <f t="shared" si="17"/>
-        <v>7.3234763411955388</v>
+        <v>3.7187670793286109</v>
       </c>
       <c r="P104" s="4">
         <f t="shared" si="18"/>
-        <v>0.95205192435542008</v>
+        <v>0.91109793443550968</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.45">
@@ -10691,11 +10718,11 @@
       </c>
       <c r="E105" s="5">
         <f t="shared" si="13"/>
-        <v>74.104368689474228</v>
+        <v>69.091638957415555</v>
       </c>
       <c r="F105" s="4">
         <f t="shared" si="1"/>
-        <v>1.2933652237431208</v>
+        <v>1.2058765854060838</v>
       </c>
       <c r="G105" s="5">
         <f t="shared" si="14"/>
@@ -10703,11 +10730,11 @@
       </c>
       <c r="H105" s="5">
         <f t="shared" si="15"/>
-        <v>183.92900368319653</v>
+        <v>379.88008746357752</v>
       </c>
       <c r="I105" s="5">
         <f t="shared" si="10"/>
-        <v>79.607808816277242</v>
+        <v>275.55889259665821</v>
       </c>
       <c r="J105" s="4">
         <f>m*g*G105/1000</f>
@@ -10715,27 +10742,27 @@
       </c>
       <c r="K105" s="5">
         <f>J105/(H105/1000)</f>
-        <v>8.4255508964059374</v>
+        <v>4.0794535775887208</v>
       </c>
       <c r="L105" s="5">
         <f>180-E105-A105</f>
-        <v>47.895631310525772</v>
+        <v>52.908361042584445</v>
       </c>
       <c r="M105" s="5">
         <f t="shared" si="11"/>
-        <v>0.83593646368996133</v>
+        <v>0.92342510202699835</v>
       </c>
       <c r="N105" s="5">
         <f t="shared" si="16"/>
-        <v>1.6851101792811876</v>
+        <v>0.81589071551774417</v>
       </c>
       <c r="O105" s="5">
         <f t="shared" si="17"/>
-        <v>7.3809625411903426</v>
+        <v>3.7461225004701699</v>
       </c>
       <c r="P105" s="4">
         <f t="shared" si="18"/>
-        <v>0.95952513035474452</v>
+        <v>0.91780001261519162</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.45">
@@ -10757,11 +10784,11 @@
       </c>
       <c r="E106" s="5">
         <f t="shared" si="13"/>
-        <v>72.198912967496568</v>
+        <v>67.148545604823425</v>
       </c>
       <c r="F106" s="4">
         <f t="shared" si="1"/>
-        <v>1.2601087476436448</v>
+        <v>1.171963208729736</v>
       </c>
       <c r="G106" s="5">
         <f t="shared" si="14"/>
@@ -10769,11 +10796,11 @@
       </c>
       <c r="H106" s="5">
         <f t="shared" si="15"/>
-        <v>186.23502701560074</v>
+        <v>384.26903082347349</v>
       </c>
       <c r="I106" s="5">
         <f t="shared" si="10"/>
-        <v>80.792048704141578</v>
+        <v>278.82605251201431</v>
       </c>
       <c r="J106" s="4">
         <f>m*g*G106/1000</f>
@@ -10781,27 +10808,27 @@
       </c>
       <c r="K106" s="5">
         <f>J106/(H106/1000)</f>
-        <v>8.4107024723556041</v>
+        <v>4.0762259680481199</v>
       </c>
       <c r="L106" s="5">
         <f>180-E106-A106</f>
-        <v>48.801087032503432</v>
+        <v>53.851454395176575</v>
       </c>
       <c r="M106" s="5">
         <f t="shared" si="11"/>
-        <v>0.85173964726949392</v>
+        <v>0.93988518618340278</v>
       </c>
       <c r="N106" s="5">
         <f t="shared" si="16"/>
-        <v>1.6821404944711209</v>
+        <v>0.815245193609624</v>
       </c>
       <c r="O106" s="5">
         <f t="shared" si="17"/>
-        <v>7.4364272419751503</v>
+        <v>3.7724106909873631</v>
       </c>
       <c r="P106" s="4">
         <f t="shared" si="18"/>
-        <v>0.96673554145676954</v>
+        <v>0.92424061929190393</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.45">
@@ -10823,11 +10850,11 @@
       </c>
       <c r="E107" s="5">
         <f t="shared" si="13"/>
-        <v>70.296462646660615</v>
+        <v>65.206892522055796</v>
       </c>
       <c r="F107" s="4">
         <f t="shared" si="1"/>
-        <v>1.226904725689435</v>
+        <v>1.1380749695039429</v>
       </c>
       <c r="G107" s="5">
         <f t="shared" si="14"/>
@@ -10835,11 +10862,11 @@
       </c>
       <c r="H107" s="5">
         <f t="shared" si="15"/>
-        <v>188.48527888545459</v>
+        <v>388.54403488371827</v>
       </c>
       <c r="I107" s="5">
         <f t="shared" si="10"/>
-        <v>81.952636082098294</v>
+        <v>282.01139208036199</v>
       </c>
       <c r="J107" s="4">
         <f>m*g*G107/1000</f>
@@ -10847,27 +10874,27 @@
       </c>
       <c r="K107" s="5">
         <f>J107/(H107/1000)</f>
-        <v>8.3961702533700109</v>
+        <v>4.0730376731940421</v>
       </c>
       <c r="L107" s="5">
         <f>180-E107-A107</f>
-        <v>49.703537353339385</v>
+        <v>54.793107477944204</v>
       </c>
       <c r="M107" s="5">
         <f t="shared" si="11"/>
-        <v>0.8674903767037605</v>
+        <v>0.95632013288925266</v>
       </c>
       <c r="N107" s="5">
         <f t="shared" si="16"/>
-        <v>1.6792340506740022</v>
+        <v>0.81460753463880842</v>
       </c>
       <c r="O107" s="5">
         <f t="shared" si="17"/>
-        <v>7.4898607559686017</v>
+        <v>3.7976256745317016</v>
       </c>
       <c r="P107" s="4">
         <f t="shared" si="18"/>
-        <v>0.97368189827591822</v>
+        <v>0.9304182902602669</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.45">
@@ -10889,11 +10916,11 @@
       </c>
       <c r="E108" s="5">
         <f t="shared" si="13"/>
-        <v>68.396947794670709</v>
+        <v>63.266661537987886</v>
       </c>
       <c r="F108" s="4">
         <f t="shared" si="1"/>
-        <v>1.1937519373316783</v>
+        <v>1.1042115505827481</v>
       </c>
       <c r="G108" s="5">
         <f t="shared" si="14"/>
@@ -10901,11 +10928,11 @@
       </c>
       <c r="H108" s="5">
         <f t="shared" si="15"/>
-        <v>190.67949418210705</v>
+        <v>392.70416885671955</v>
       </c>
       <c r="I108" s="5">
         <f t="shared" si="10"/>
-        <v>83.089637761856437</v>
+        <v>285.11431243646894</v>
       </c>
       <c r="J108" s="4">
         <f>m*g*G108/1000</f>
@@ -10913,27 +10940,27 @@
       </c>
       <c r="K108" s="5">
         <f>J108/(H108/1000)</f>
-        <v>8.3819160881449157</v>
+        <v>4.0698817244985053</v>
       </c>
       <c r="L108" s="5">
         <f>180-E108-A108</f>
-        <v>50.603052205329291</v>
+        <v>55.733338462012114</v>
       </c>
       <c r="M108" s="5">
         <f t="shared" si="11"/>
-        <v>0.88318987254157377</v>
+        <v>0.97273025929050405</v>
       </c>
       <c r="N108" s="5">
         <f t="shared" si="16"/>
-        <v>1.6763832176289832</v>
+        <v>0.81397634489970105</v>
       </c>
       <c r="O108" s="5">
         <f t="shared" si="17"/>
-        <v>7.5412539493603141</v>
+        <v>3.8217618176453128</v>
       </c>
       <c r="P108" s="4">
         <f t="shared" si="18"/>
-        <v>0.98036301341684084</v>
+        <v>0.93633164532310165</v>
       </c>
       <c r="R108" t="s">
         <v>27</v>
@@ -10961,11 +10988,11 @@
       </c>
       <c r="E109" s="5">
         <f t="shared" si="13"/>
-        <v>66.50030653101463</v>
+        <v>61.327837576925127</v>
       </c>
       <c r="F109" s="4">
         <f t="shared" si="1"/>
-        <v>1.160649302551694</v>
+        <v>1.0703726888456446</v>
       </c>
       <c r="G109" s="5">
         <f t="shared" si="14"/>
@@ -10973,11 +11000,11 @@
       </c>
       <c r="H109" s="5">
         <f t="shared" si="15"/>
-        <v>192.81740877334974</v>
+        <v>396.74852785343472</v>
       </c>
       <c r="I109" s="5">
         <f t="shared" si="10"/>
-        <v>84.203111648716686</v>
+        <v>288.13423072880164</v>
       </c>
       <c r="J109" s="4">
         <f>m*g*G109/1000</f>
@@ -10985,27 +11012,27 @@
       </c>
       <c r="K109" s="5">
         <f>J109/(H109/1000)</f>
-        <v>8.3679047088356615</v>
+        <v>4.0667515807797736</v>
       </c>
       <c r="L109" s="5">
         <f>180-E109-A109</f>
-        <v>51.49969346898537</v>
+        <v>56.672162423074866</v>
       </c>
       <c r="M109" s="5">
         <f t="shared" si="11"/>
-        <v>0.89883921480161499</v>
+        <v>0.98911582850766411</v>
       </c>
       <c r="N109" s="5">
         <f t="shared" si="16"/>
-        <v>1.6735809417671323</v>
+        <v>0.81335031615595477</v>
       </c>
       <c r="O109" s="5">
         <f t="shared" si="17"/>
-        <v>7.5905982510232786</v>
+        <v>3.8448138317774943</v>
       </c>
       <c r="P109" s="4">
         <f t="shared" si="18"/>
-        <v>0.98677777263302624</v>
+        <v>0.94197938878548615</v>
       </c>
       <c r="R109">
         <v>10</v>
@@ -11033,11 +11060,11 @@
       </c>
       <c r="E110" s="5">
         <f t="shared" si="13"/>
-        <v>64.606484372001432</v>
+        <v>59.390408460498357</v>
       </c>
       <c r="F110" s="4">
         <f t="shared" si="1"/>
-        <v>1.127595870429686</v>
+        <v>1.036558171739993</v>
       </c>
       <c r="G110" s="5">
         <f t="shared" si="14"/>
@@ -11045,11 +11072,11 @@
       </c>
       <c r="H110" s="5">
         <f t="shared" si="15"/>
-        <v>194.89876126134453</v>
+        <v>400.6762342425107</v>
       </c>
       <c r="I110" s="5">
         <f t="shared" si="10"/>
-        <v>85.293108399403536</v>
+        <v>291.07058138056971</v>
       </c>
       <c r="J110" s="4">
         <f>m*g*G110/1000</f>
@@ -11057,27 +11084,27 @@
       </c>
       <c r="K110" s="5">
         <f>J110/(H110/1000)</f>
-        <v>8.3541034032226698</v>
+        <v>4.063641078726433</v>
       </c>
       <c r="L110" s="5">
         <f>180-E110-A110</f>
-        <v>52.393515627998568</v>
+        <v>57.60959153950165</v>
       </c>
       <c r="M110" s="5">
         <f t="shared" si="11"/>
-        <v>0.91443935440367952</v>
+        <v>1.0054770530933728</v>
       </c>
       <c r="N110" s="5">
         <f t="shared" si="16"/>
-        <v>1.670820680644534</v>
+        <v>0.81272821574528664</v>
       </c>
       <c r="O110" s="5">
         <f t="shared" si="17"/>
-        <v>7.6378856608605368</v>
+        <v>3.8667767753742623</v>
       </c>
       <c r="P110" s="4">
         <f t="shared" si="18"/>
-        <v>0.99292513591186982</v>
+        <v>0.94736030996669429</v>
       </c>
       <c r="R110">
         <v>20</v>
@@ -11105,11 +11132,11 @@
       </c>
       <c r="E111" s="5">
         <f t="shared" ref="E111:E119" si="19">180-A111-DEGREES(ACOS((y_AP*COS(B111)+r_W)/l_A))</f>
-        <v>62.715433651047398</v>
+        <v>57.454364732167384</v>
       </c>
       <c r="F111" s="4">
         <f t="shared" si="1"/>
-        <v>1.0945908090268257</v>
+        <v>1.0027678342180308</v>
       </c>
       <c r="G111" s="5">
         <f t="shared" ref="G111:G119" si="20">(r_W/SIN(D111)+y_CG)*COS(D111)-r_W/TAN(D111)</f>
@@ -11117,11 +11144,11 @@
       </c>
       <c r="H111" s="5">
         <f t="shared" ref="H111:H119" si="21">(r_W/SIN(D111)+y_AP)*COS(D111)-r_W/TAN(D111)+l_A*COS(F111-D111)</f>
-        <v>196.92329456396789</v>
+        <v>404.48643890793596</v>
       </c>
       <c r="I111" s="5">
         <f t="shared" si="10"/>
-        <v>86.359672908354568</v>
+        <v>293.92281725232266</v>
       </c>
       <c r="J111" s="4">
         <f>m*g*G111/1000</f>
@@ -11129,27 +11156,27 @@
       </c>
       <c r="K111" s="5">
         <f>J111/(H111/1000)</f>
-        <v>8.3404817264347599</v>
+        <v>4.0605443887178971</v>
       </c>
       <c r="L111" s="5">
         <f>180-E111-A111</f>
-        <v>53.284566348952609</v>
+        <v>58.545635267832608</v>
       </c>
       <c r="M111" s="5">
         <f t="shared" si="11"/>
-        <v>0.92999112328659683</v>
+        <v>1.0218140980953914</v>
       </c>
       <c r="N111" s="5">
         <f t="shared" ref="N111:N119" si="22">K111*mu</f>
-        <v>1.6680963452869522</v>
+        <v>0.81210887774357943</v>
       </c>
       <c r="O111" s="5">
         <f t="shared" ref="O111:O119" si="23">K111*SIN(M111)+N111*COS(M111)</f>
-        <v>7.6831087576071733</v>
+        <v>3.8876460560119082</v>
       </c>
       <c r="P111" s="4">
         <f t="shared" ref="P111:P119" si="24">O111*l_A/1000</f>
-        <v>0.99880413848893246</v>
+        <v>0.95247328372291751</v>
       </c>
       <c r="R111">
         <v>30</v>
@@ -11177,11 +11204,11 @@
       </c>
       <c r="E112" s="5">
         <f t="shared" si="19"/>
-        <v>60.827113004670046</v>
+        <v>55.5196995018362</v>
       </c>
       <c r="F112" s="4">
         <f t="shared" ref="F112:F119" si="28">RADIANS(E112)</f>
-        <v>1.0616333964141533</v>
+        <v>0.96900155602489724</v>
       </c>
       <c r="G112" s="5">
         <f t="shared" si="20"/>
@@ -11189,11 +11216,11 @@
       </c>
       <c r="H112" s="5">
         <f t="shared" si="21"/>
-        <v>198.89075734343353</v>
+        <v>408.1783224161253</v>
       </c>
       <c r="I112" s="5">
         <f t="shared" ref="I112:I119" si="29">H112-G112</f>
-        <v>87.40284564435801</v>
+        <v>296.69041071704976</v>
       </c>
       <c r="J112" s="4">
         <f>m*g*G112/1000</f>
@@ -11201,27 +11228,27 @@
       </c>
       <c r="K112" s="5">
         <f>J112/(H112/1000)</f>
-        <v>8.3270112466258901</v>
+        <v>4.0574559752350146</v>
       </c>
       <c r="L112" s="5">
         <f>180-E112-A112</f>
-        <v>54.172886995329947</v>
+        <v>59.4803004981638</v>
       </c>
       <c r="M112" s="5">
         <f t="shared" ref="M112:M119" si="30">RADIANS(L112)</f>
-        <v>0.94549524337932556</v>
+        <v>1.0381270837685816</v>
       </c>
       <c r="N112" s="5">
         <f t="shared" si="22"/>
-        <v>1.6654022493251781</v>
+        <v>0.81149119504700296</v>
       </c>
       <c r="O112" s="5">
         <f t="shared" si="23"/>
-        <v>7.726260706105303</v>
+        <v>3.907417432550619</v>
       </c>
       <c r="P112" s="4">
         <f t="shared" si="24"/>
-        <v>1.0044138917936893</v>
+        <v>0.95731727097490171</v>
       </c>
       <c r="R112">
         <v>40</v>
@@ -11249,11 +11276,11 @@
       </c>
       <c r="E113" s="5">
         <f t="shared" si="19"/>
-        <v>58.941486916045832</v>
+        <v>53.586408308418804</v>
       </c>
       <c r="F113" s="4">
         <f t="shared" si="28"/>
-        <v>1.0287230127061584</v>
+        <v>0.93525925929995313</v>
       </c>
       <c r="G113" s="5">
         <f t="shared" si="20"/>
@@ -11261,11 +11288,11 @@
       </c>
       <c r="H113" s="5">
         <f t="shared" si="21"/>
-        <v>200.80090530086596</v>
+        <v>411.75109610193459</v>
       </c>
       <c r="I113" s="5">
         <f t="shared" si="29"/>
-        <v>88.422663856239382</v>
+        <v>299.37285465730804</v>
       </c>
       <c r="J113" s="4">
         <f>m*g*G113/1000</f>
@@ -11273,27 +11300,27 @@
       </c>
       <c r="K113" s="5">
         <f>J113/(H113/1000)</f>
-        <v>8.3136653198787798</v>
+        <v>4.0543705612547818</v>
       </c>
       <c r="L113" s="5">
         <f>180-E113-A113</f>
-        <v>55.058513083954168</v>
+        <v>60.413591691581189</v>
       </c>
       <c r="M113" s="5">
         <f t="shared" si="30"/>
-        <v>0.96095233456737739</v>
+        <v>1.0544160879735824</v>
       </c>
       <c r="N113" s="5">
         <f t="shared" si="22"/>
-        <v>1.662733063975756</v>
+        <v>0.8108741122509564</v>
       </c>
       <c r="O113" s="5">
         <f t="shared" si="23"/>
-        <v>7.7673352640670732</v>
+        <v>3.9260870172883369</v>
       </c>
       <c r="P113" s="4">
         <f t="shared" si="24"/>
-        <v>1.0097535843287195</v>
+        <v>0.96189131923564253</v>
       </c>
       <c r="R113">
         <v>50</v>
@@ -11321,11 +11348,11 @@
       </c>
       <c r="E114" s="5">
         <f t="shared" si="19"/>
-        <v>57.058525309155485</v>
+        <v>51.65448899848014</v>
       </c>
       <c r="F114" s="4">
         <f t="shared" si="28"/>
-        <v>0.99585913297727868</v>
+        <v>0.90154090645866669</v>
       </c>
       <c r="G114" s="5">
         <f t="shared" si="20"/>
@@ -11333,11 +11360,11 @@
       </c>
       <c r="H114" s="5">
         <f t="shared" si="21"/>
-        <v>202.65350235283074</v>
+        <v>415.20400308189727</v>
       </c>
       <c r="I114" s="5">
         <f t="shared" si="29"/>
-        <v>89.419162663629649</v>
+        <v>301.96966339269619</v>
       </c>
       <c r="J114" s="4">
         <f>m*g*G114/1000</f>
@@ -11345,27 +11372,27 @@
       </c>
       <c r="K114" s="5">
         <f>J114/(H114/1000)</f>
-        <v>8.3004188903345302</v>
+        <v>4.0512830961075794</v>
       </c>
       <c r="L114" s="5">
         <f>180-E114-A114</f>
-        <v>55.941474690844515</v>
+        <v>61.345511001519867</v>
       </c>
       <c r="M114" s="5">
         <f t="shared" si="30"/>
-        <v>0.97636292177631379</v>
+        <v>1.0706811482949259</v>
       </c>
       <c r="N114" s="5">
         <f t="shared" si="22"/>
-        <v>1.6600837780669062</v>
+        <v>0.81025661922151593</v>
       </c>
       <c r="O114" s="5">
         <f t="shared" si="23"/>
-        <v>7.8063267883383549</v>
+        <v>3.943651278098526</v>
       </c>
       <c r="P114" s="4">
         <f t="shared" si="24"/>
-        <v>1.0148224824839862</v>
+        <v>0.96619456313413887</v>
       </c>
       <c r="R114">
         <v>60</v>
@@ -11393,11 +11420,11 @@
       </c>
       <c r="E115" s="5">
         <f t="shared" si="19"/>
-        <v>55.178203187521746</v>
+        <v>49.723941619321735</v>
       </c>
       <c r="F115" s="4">
         <f t="shared" si="28"/>
-        <v>0.9630413209566846</v>
+        <v>0.86784649832660521</v>
       </c>
       <c r="G115" s="5">
         <f t="shared" si="20"/>
@@ -11405,11 +11432,11 @@
       </c>
       <c r="H115" s="5">
         <f t="shared" si="21"/>
-        <v>204.44832170358575</v>
+        <v>418.536319201938</v>
       </c>
       <c r="I115" s="5">
         <f t="shared" si="29"/>
-        <v>90.39237604660515</v>
+        <v>304.48037354495739</v>
       </c>
       <c r="J115" s="4">
         <f>m*g*G115/1000</f>
@@ -11417,27 +11444,27 @@
       </c>
       <c r="K115" s="5">
         <f>J115/(H115/1000)</f>
-        <v>8.2872483121493232</v>
+        <v>4.0481887263463978</v>
       </c>
       <c r="L115" s="5">
         <f>180-E115-A115</f>
-        <v>56.821796812478254</v>
+        <v>62.276058380678251</v>
       </c>
       <c r="M115" s="5">
         <f t="shared" si="30"/>
-        <v>0.99172744127696455</v>
+        <v>1.0869222639070437</v>
       </c>
       <c r="N115" s="5">
         <f t="shared" si="22"/>
-        <v>1.6574496624298647</v>
+        <v>0.80963774526927956</v>
       </c>
       <c r="O115" s="5">
         <f t="shared" si="23"/>
-        <v>7.8432302406736953</v>
+        <v>3.9601070405382615</v>
       </c>
       <c r="P115" s="4">
         <f t="shared" si="24"/>
-        <v>1.0196199312875804</v>
+        <v>0.97022622493187405</v>
       </c>
       <c r="R115">
         <v>70</v>
@@ -11465,11 +11492,11 @@
       </c>
       <c r="E116" s="5">
         <f t="shared" si="19"/>
-        <v>53.300500312372677</v>
+        <v>47.794768325092569</v>
       </c>
       <c r="F116" s="4">
         <f t="shared" si="28"/>
-        <v>0.93026922341116935</v>
+        <v>0.83417607250076087</v>
       </c>
       <c r="G116" s="5">
         <f t="shared" si="20"/>
@@ -11477,11 +11504,11 @@
       </c>
       <c r="H116" s="5">
         <f t="shared" si="21"/>
-        <v>206.18514682492662</v>
+        <v>421.74735392593527</v>
       </c>
       <c r="I116" s="5">
         <f t="shared" si="29"/>
-        <v>91.342337746098394</v>
+        <v>306.90454484710705</v>
       </c>
       <c r="J116" s="4">
         <f>m*g*G116/1000</f>
@@ -11489,27 +11516,27 @@
       </c>
       <c r="K116" s="5">
         <f>J116/(H116/1000)</f>
-        <v>8.27413119038094</v>
+        <v>4.0450827692377098</v>
       </c>
       <c r="L116" s="5">
         <f>180-E116-A116</f>
-        <v>57.699499687627323</v>
+        <v>63.205231674907424</v>
       </c>
       <c r="M116" s="5">
         <f t="shared" si="30"/>
-        <v>1.0070462463025365</v>
+        <v>1.1031393972129448</v>
       </c>
       <c r="N116" s="5">
         <f t="shared" si="22"/>
-        <v>1.654826238076188</v>
+        <v>0.80901655384754201</v>
       </c>
       <c r="O116" s="5">
         <f t="shared" si="23"/>
-        <v>7.8780411930312182</v>
+        <v>3.9754514899154239</v>
       </c>
       <c r="P116" s="4">
         <f t="shared" si="24"/>
-        <v>1.0241453550940585</v>
+        <v>0.97398561502927883</v>
       </c>
       <c r="R116">
         <v>80</v>
@@ -11537,11 +11564,11 @@
       </c>
       <c r="E117" s="5">
         <f t="shared" si="19"/>
-        <v>51.425400915763355</v>
+        <v>45.866973294687526</v>
       </c>
       <c r="F117" s="4">
         <f t="shared" si="28"/>
-        <v>0.89754256513817765</v>
+        <v>0.80052970191660866</v>
       </c>
       <c r="G117" s="5">
         <f t="shared" si="20"/>
@@ -11549,11 +11576,11 @@
       </c>
       <c r="H117" s="5">
         <f t="shared" si="21"/>
-        <v>207.86377235390171</v>
+        <v>424.83645117074525</v>
       </c>
       <c r="I117" s="5">
         <f t="shared" si="29"/>
-        <v>92.2690820853785</v>
+        <v>309.24176090222204</v>
       </c>
       <c r="J117" s="4">
         <f>m*g*G117/1000</f>
@@ -11561,27 +11588,27 @@
       </c>
       <c r="K117" s="5">
         <f>J117/(H117/1000)</f>
-        <v>8.2610462383271095</v>
+        <v>4.0419606885345551</v>
       </c>
       <c r="L117" s="5">
         <f>180-E117-A117</f>
-        <v>58.574599084236638</v>
+        <v>64.133026705312489</v>
       </c>
       <c r="M117" s="5">
         <f t="shared" si="30"/>
-        <v>1.0223196120555846</v>
+        <v>1.1193324752771541</v>
       </c>
       <c r="N117" s="5">
         <f t="shared" si="22"/>
-        <v>1.652209247665422</v>
+        <v>0.8083921377069111</v>
       </c>
       <c r="O117" s="5">
         <f t="shared" si="23"/>
-        <v>7.910755832394571</v>
+        <v>3.9896821733056544</v>
       </c>
       <c r="P117" s="4">
         <f t="shared" si="24"/>
-        <v>1.0283982582112943</v>
+        <v>0.97747213245988529</v>
       </c>
       <c r="R117">
         <v>90</v>
@@ -11609,11 +11636,11 @@
       </c>
       <c r="E118" s="5">
         <f t="shared" si="19"/>
-        <v>49.552893444784516</v>
+        <v>43.940562660353336</v>
       </c>
       <c r="F118" s="4">
         <f t="shared" si="28"/>
-        <v>0.86486114450140472</v>
+        <v>0.76690749360204458</v>
       </c>
       <c r="G118" s="5">
         <f t="shared" si="20"/>
@@ -11621,11 +11648,11 @@
       </c>
       <c r="H118" s="5">
         <f t="shared" si="21"/>
-        <v>209.48400491731257</v>
+        <v>427.80299009264093</v>
       </c>
       <c r="I118" s="5">
         <f t="shared" si="29"/>
-        <v>93.172644721541118</v>
+        <v>311.49162989686948</v>
       </c>
       <c r="J118" s="4">
         <f>m*g*G118/1000</f>
@@ -11633,27 +11660,27 @@
       </c>
       <c r="K118" s="5">
         <f>J118/(H118/1000)</f>
-        <v>8.2479731491894182</v>
+        <v>4.0388180722357694</v>
       </c>
       <c r="L118" s="5">
         <f>180-E118-A118</f>
-        <v>59.447106555215498</v>
+        <v>65.059437339646649</v>
       </c>
       <c r="M118" s="5">
         <f t="shared" si="30"/>
-        <v>1.0375477401724147</v>
+        <v>1.1355013910717744</v>
       </c>
       <c r="N118" s="5">
         <f t="shared" si="22"/>
-        <v>1.6495946298378836</v>
+        <v>0.80776361444715394</v>
       </c>
       <c r="O118" s="5">
         <f t="shared" si="23"/>
-        <v>7.9413709651273177</v>
+        <v>4.0027970015114009</v>
       </c>
       <c r="P118" s="4">
         <f t="shared" si="24"/>
-        <v>1.0323782254665514</v>
+        <v>0.98068526537029321</v>
       </c>
       <c r="R118">
         <v>100</v>
@@ -11681,11 +11708,11 @@
       </c>
       <c r="E119" s="5">
         <f t="shared" si="19"/>
-        <v>47.682970333492634</v>
+        <v>42.01554444605847</v>
       </c>
       <c r="F119" s="4">
         <f t="shared" si="28"/>
-        <v>0.83222482945022502</v>
+        <v>0.73330958760173737</v>
       </c>
       <c r="G119" s="5">
         <f t="shared" si="20"/>
@@ -11693,11 +11720,11 @@
       </c>
       <c r="H119" s="5">
         <f t="shared" si="21"/>
-        <v>211.04566389076015</v>
+        <v>430.64638582956331</v>
       </c>
       <c r="I119" s="5">
         <f t="shared" si="29"/>
-        <v>94.053063334789556</v>
+        <v>313.65378527359269</v>
       </c>
       <c r="J119" s="4">
         <f>m*g*G119/1000</f>
@@ -11705,27 +11732,27 @@
       </c>
       <c r="K119" s="5">
         <f>J119/(H119/1000)</f>
-        <v>8.2348924802325083</v>
+        <v>4.035650612072061</v>
       </c>
       <c r="L119" s="5">
         <f>180-E119-A119</f>
-        <v>60.317029666507381</v>
+        <v>65.98445555394153</v>
       </c>
       <c r="M119" s="5">
         <f t="shared" si="30"/>
-        <v>1.0527307627036511</v>
+        <v>1.1516460045521386</v>
       </c>
       <c r="N119" s="5">
         <f t="shared" si="22"/>
-        <v>1.6469784960465017</v>
+        <v>0.80713012241441229</v>
       </c>
       <c r="O119" s="5">
         <f t="shared" si="23"/>
-        <v>7.9698840208637494</v>
+        <v>4.0147942509566024</v>
       </c>
       <c r="P119" s="4">
         <f t="shared" si="24"/>
-        <v>1.0360849227122875</v>
+        <v>0.98362459148436754</v>
       </c>
       <c r="R119">
         <v>101</v>
